--- a/test/files/FQ_BFR5.xlsx
+++ b/test/files/FQ_BFR5.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5279" uniqueCount="2604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="2606">
   <si>
     <t>type</t>
   </si>
@@ -8429,9 +8429,6 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>212a OR 212b = 'months' OR 'years'</t>
   </si>
   <si>
@@ -8499,6 +8496,15 @@
   </si>
   <si>
     <t>006 ≠ 1</t>
+  </si>
+  <si>
+    <t>Region: [Region]</t>
+  </si>
+  <si>
+    <t>Province: [Province]</t>
+  </si>
+  <si>
+    <t>Commune: [Commune]</t>
   </si>
 </sst>
 </file>
@@ -8936,7 +8942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1605">
+  <cellStyleXfs count="1623">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10164,6 +10170,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11019,7 +11043,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1605">
+  <cellStyles count="1623">
     <cellStyle name="20% - Accent6" xfId="1222" builtinId="50"/>
     <cellStyle name="Excel Built-in Normal" xfId="228"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -11822,6 +11846,15 @@
     <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -12622,6 +12655,15 @@
     <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="37"/>
     <cellStyle name="Normal 5" xfId="231"/>
@@ -12945,8 +12987,8 @@
   <dimension ref="A1:BR574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q399" sqref="Q399"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S394" sqref="S394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -13378,10 +13420,10 @@
       </c>
       <c r="R10" s="73"/>
       <c r="S10" s="75" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="U10" s="75" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="131" customFormat="1" ht="13" customHeight="1">
@@ -14244,6 +14286,13 @@
       <c r="K34" s="131" t="s">
         <v>25</v>
       </c>
+      <c r="L34" s="64"/>
+      <c r="R34" s="64" t="s">
+        <v>2603</v>
+      </c>
+      <c r="T34" s="64" t="s">
+        <v>2603</v>
+      </c>
       <c r="V34" s="155" t="s">
         <v>2515</v>
       </c>
@@ -14262,6 +14311,13 @@
       <c r="K35" s="131" t="s">
         <v>25</v>
       </c>
+      <c r="L35" s="64"/>
+      <c r="R35" s="64" t="s">
+        <v>2604</v>
+      </c>
+      <c r="T35" s="64" t="s">
+        <v>2604</v>
+      </c>
       <c r="V35" s="131" t="s">
         <v>2178</v>
       </c>
@@ -14279,6 +14335,13 @@
       <c r="J36" s="159"/>
       <c r="K36" s="131" t="s">
         <v>25</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="R36" s="64" t="s">
+        <v>2605</v>
+      </c>
+      <c r="T36" s="64" t="s">
+        <v>2605</v>
       </c>
       <c r="V36" s="131" t="s">
         <v>2179</v>
@@ -14677,8 +14740,14 @@
       <c r="R46" s="77" t="s">
         <v>98</v>
       </c>
+      <c r="S46" s="105" t="s">
+        <v>759</v>
+      </c>
       <c r="T46" s="77" t="s">
         <v>101</v>
+      </c>
+      <c r="U46" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V46" s="77" t="s">
         <v>101</v>
@@ -14719,14 +14788,14 @@
       <c r="R47" s="77" t="s">
         <v>2329</v>
       </c>
-      <c r="S47" s="78" t="s">
-        <v>2580</v>
+      <c r="S47" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T47" s="77" t="s">
         <v>2181</v>
       </c>
-      <c r="U47" s="78" t="s">
-        <v>2580</v>
+      <c r="U47" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V47" s="77" t="s">
         <v>2522</v>
@@ -14785,11 +14854,11 @@
       <c r="J49" s="125" t="s">
         <v>2330</v>
       </c>
-      <c r="S49" s="78" t="s">
-        <v>2580</v>
-      </c>
-      <c r="U49" s="78" t="s">
-        <v>2580</v>
+      <c r="S49" s="105" t="s">
+        <v>759</v>
+      </c>
+      <c r="U49" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V49" s="77"/>
       <c r="X49" s="77"/>
@@ -15188,11 +15257,11 @@
         <v>120</v>
       </c>
       <c r="S60" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T60" s="75"/>
       <c r="U60" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V60" s="75"/>
       <c r="W60" s="75"/>
@@ -16377,11 +16446,11 @@
       <c r="Q82" s="86"/>
       <c r="R82" s="86"/>
       <c r="S82" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T82" s="75"/>
       <c r="U82" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V82" s="75"/>
       <c r="W82" s="75"/>
@@ -16995,11 +17064,11 @@
       <c r="Q97" s="86"/>
       <c r="R97" s="86"/>
       <c r="S97" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T97" s="75"/>
       <c r="U97" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V97" s="75"/>
       <c r="W97" s="75"/>
@@ -17908,11 +17977,11 @@
       <c r="Q118" s="86"/>
       <c r="R118" s="86"/>
       <c r="S118" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T118" s="75"/>
       <c r="U118" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V118" s="75"/>
       <c r="W118" s="75"/>
@@ -18341,11 +18410,11 @@
       <c r="Q128" s="86"/>
       <c r="R128" s="86"/>
       <c r="S128" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T128" s="75"/>
       <c r="U128" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V128" s="75"/>
       <c r="W128" s="75"/>
@@ -18971,11 +19040,11 @@
       <c r="P143" s="75"/>
       <c r="Q143" s="73"/>
       <c r="R143" s="73"/>
-      <c r="S143" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="U143" s="75" t="s">
-        <v>2580</v>
+      <c r="S143" s="105" t="s">
+        <v>759</v>
+      </c>
+      <c r="U143" s="105" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="144" spans="1:49" ht="13" customHeight="1">
@@ -19353,14 +19422,14 @@
       <c r="R151" s="73" t="s">
         <v>2128</v>
       </c>
-      <c r="S151" s="75" t="s">
-        <v>2580</v>
+      <c r="S151" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T151" s="73" t="s">
         <v>2117</v>
       </c>
-      <c r="U151" s="75" t="s">
-        <v>2580</v>
+      <c r="U151" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V151" s="73" t="s">
         <v>2127</v>
@@ -19507,12 +19576,12 @@
       <c r="P154" s="75"/>
       <c r="Q154" s="73"/>
       <c r="R154" s="73"/>
-      <c r="S154" s="75" t="s">
-        <v>2580</v>
+      <c r="S154" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T154" s="73"/>
-      <c r="U154" s="75" t="s">
-        <v>2580</v>
+      <c r="U154" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V154" s="73"/>
       <c r="W154" s="73"/>
@@ -20812,13 +20881,13 @@
         <v>2118</v>
       </c>
       <c r="S169" s="75" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="T169" s="73" t="s">
         <v>2152</v>
       </c>
       <c r="U169" s="75" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="V169" s="73" t="s">
         <v>813</v>
@@ -21741,12 +21810,12 @@
       <c r="O188" s="77"/>
       <c r="Q188" s="77"/>
       <c r="R188" s="77"/>
-      <c r="S188" s="78" t="s">
-        <v>2580</v>
+      <c r="S188" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T188" s="77"/>
-      <c r="U188" s="78" t="s">
-        <v>2580</v>
+      <c r="U188" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V188" s="77"/>
       <c r="W188" s="77"/>
@@ -22776,12 +22845,12 @@
       <c r="O206" s="77"/>
       <c r="Q206" s="77"/>
       <c r="R206" s="77"/>
-      <c r="S206" s="78" t="s">
-        <v>2580</v>
+      <c r="S206" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T206" s="77"/>
-      <c r="U206" s="78" t="s">
-        <v>2580</v>
+      <c r="U206" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V206" s="77"/>
       <c r="W206" s="77"/>
@@ -23370,11 +23439,11 @@
         <v>229</v>
       </c>
       <c r="S219" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T219" s="75"/>
       <c r="U219" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V219" s="75"/>
       <c r="W219" s="75"/>
@@ -23480,13 +23549,13 @@
         <v>2058</v>
       </c>
       <c r="S221" s="78" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="T221" s="88" t="s">
         <v>2062</v>
       </c>
       <c r="U221" s="78" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="V221" s="88" t="s">
         <v>877</v>
@@ -23540,13 +23609,13 @@
         <v>2059</v>
       </c>
       <c r="S222" s="78" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="T222" s="88" t="s">
         <v>2054</v>
       </c>
       <c r="U222" s="78" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="V222" s="88" t="s">
         <v>878</v>
@@ -24026,11 +24095,11 @@
       <c r="Q233" s="86"/>
       <c r="R233" s="86"/>
       <c r="S233" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T233" s="75"/>
       <c r="U233" s="89" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V233" s="75"/>
       <c r="W233" s="75"/>
@@ -24522,11 +24591,11 @@
         <v>245</v>
       </c>
       <c r="S244" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T244" s="75"/>
       <c r="U244" s="86" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V244" s="75"/>
       <c r="W244" s="75"/>
@@ -24632,13 +24701,13 @@
         <v>2058</v>
       </c>
       <c r="S246" s="78" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="T246" s="88" t="s">
         <v>2062</v>
       </c>
       <c r="U246" s="78" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="V246" s="88" t="s">
         <v>877</v>
@@ -24692,13 +24761,13 @@
         <v>2059</v>
       </c>
       <c r="S247" s="78" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="T247" s="88" t="s">
         <v>2054</v>
       </c>
       <c r="U247" s="78" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="V247" s="88" t="s">
         <v>878</v>
@@ -25392,12 +25461,12 @@
       <c r="O261" s="77"/>
       <c r="Q261" s="77"/>
       <c r="R261" s="77"/>
-      <c r="S261" s="78" t="s">
-        <v>2580</v>
+      <c r="S261" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T261" s="77"/>
-      <c r="U261" s="78" t="s">
-        <v>2580</v>
+      <c r="U261" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V261" s="77"/>
       <c r="W261" s="77"/>
@@ -26622,7 +26691,7 @@
         <v>1194</v>
       </c>
       <c r="C284" s="136" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D284" s="136"/>
       <c r="E284" s="136"/>
@@ -26646,16 +26715,16 @@
         <v>2429</v>
       </c>
       <c r="S284" s="137" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="T284" s="136" t="s">
         <v>2220</v>
       </c>
       <c r="U284" s="137" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="V284" s="136" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="W284" s="136"/>
       <c r="X284" s="136"/>
@@ -26989,14 +27058,14 @@
       <c r="R290" s="77" t="s">
         <v>2092</v>
       </c>
-      <c r="S290" s="77" t="s">
-        <v>2580</v>
+      <c r="S290" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T290" s="77" t="s">
         <v>2093</v>
       </c>
-      <c r="U290" s="77" t="s">
-        <v>2580</v>
+      <c r="U290" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V290" s="77" t="s">
         <v>2224</v>
@@ -27652,12 +27721,12 @@
       <c r="O303" s="77"/>
       <c r="Q303" s="77"/>
       <c r="R303" s="77"/>
-      <c r="S303" s="78" t="s">
-        <v>2580</v>
+      <c r="S303" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T303" s="77"/>
-      <c r="U303" s="78" t="s">
-        <v>2580</v>
+      <c r="U303" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V303" s="77"/>
       <c r="W303" s="77"/>
@@ -27992,13 +28061,13 @@
         <v>922</v>
       </c>
       <c r="S311" s="75" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="T311" s="73" t="s">
         <v>932</v>
       </c>
       <c r="U311" s="75" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="V311" s="73" t="s">
         <v>932</v>
@@ -28082,13 +28151,13 @@
         <v>924</v>
       </c>
       <c r="S312" s="75" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="T312" s="73" t="s">
         <v>932</v>
       </c>
       <c r="U312" s="75" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="V312" s="73" t="s">
         <v>932</v>
@@ -28172,13 +28241,13 @@
         <v>926</v>
       </c>
       <c r="S313" s="75" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="T313" s="73" t="s">
         <v>933</v>
       </c>
       <c r="U313" s="75" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="V313" s="73" t="s">
         <v>933</v>
@@ -28262,13 +28331,13 @@
         <v>928</v>
       </c>
       <c r="S314" s="75" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="T314" s="73" t="s">
         <v>931</v>
       </c>
       <c r="U314" s="75" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="V314" s="73" t="s">
         <v>931</v>
@@ -28787,11 +28856,11 @@
       <c r="P323" s="75"/>
       <c r="Q323" s="73"/>
       <c r="R323" s="73"/>
-      <c r="S323" s="75" t="s">
-        <v>2580</v>
-      </c>
-      <c r="U323" s="75" t="s">
-        <v>2580</v>
+      <c r="S323" s="105" t="s">
+        <v>759</v>
+      </c>
+      <c r="U323" s="105" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="324" spans="1:70" ht="13" customHeight="1">
@@ -29129,13 +29198,13 @@
         <v>1468</v>
       </c>
       <c r="S332" s="85" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T332" s="107" t="s">
         <v>2098</v>
       </c>
       <c r="U332" s="85" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V332" s="84" t="s">
         <v>2098</v>
@@ -29200,12 +29269,12 @@
       <c r="P334" s="75"/>
       <c r="Q334" s="73"/>
       <c r="R334" s="73"/>
-      <c r="S334" s="75" t="s">
-        <v>2580</v>
+      <c r="S334" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T334" s="73"/>
-      <c r="U334" s="75" t="s">
-        <v>2580</v>
+      <c r="U334" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V334" s="73"/>
       <c r="W334" s="73"/>
@@ -29459,13 +29528,13 @@
         <v>2101</v>
       </c>
       <c r="S337" s="174" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="T337" s="73" t="s">
         <v>2102</v>
       </c>
       <c r="U337" s="174" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="V337" s="73" t="s">
         <v>1629</v>
@@ -29549,13 +29618,13 @@
         <v>959</v>
       </c>
       <c r="S338" s="174" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="T338" s="73" t="s">
         <v>962</v>
       </c>
       <c r="U338" s="174" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="V338" s="73" t="s">
         <v>962</v>
@@ -30087,12 +30156,12 @@
       <c r="P347" s="75"/>
       <c r="Q347" s="75"/>
       <c r="R347" s="75"/>
-      <c r="S347" s="75" t="s">
-        <v>2580</v>
+      <c r="S347" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T347" s="73"/>
-      <c r="U347" s="75" t="s">
-        <v>2580</v>
+      <c r="U347" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V347" s="73"/>
       <c r="W347" s="73"/>
@@ -30967,13 +31036,13 @@
         <v>2150</v>
       </c>
       <c r="S359" s="82" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="T359" s="83" t="s">
         <v>2151</v>
       </c>
       <c r="U359" s="82" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="V359" s="83" t="s">
         <v>1172</v>
@@ -31141,13 +31210,13 @@
         <v>2150</v>
       </c>
       <c r="S362" s="82" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="T362" s="83" t="s">
         <v>2151</v>
       </c>
       <c r="U362" s="82" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="V362" s="83" t="s">
         <v>1173</v>
@@ -31194,12 +31263,12 @@
       <c r="P363" s="77"/>
       <c r="Q363" s="111"/>
       <c r="R363" s="77"/>
-      <c r="S363" s="77" t="s">
-        <v>2580</v>
+      <c r="S363" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="T363" s="73"/>
-      <c r="U363" s="77" t="s">
-        <v>2580</v>
+      <c r="U363" s="105" t="s">
+        <v>759</v>
       </c>
       <c r="V363" s="73"/>
       <c r="W363" s="73"/>
@@ -32319,13 +32388,13 @@
         <v>1188</v>
       </c>
       <c r="S385" s="105" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="T385" s="73" t="s">
         <v>1189</v>
       </c>
       <c r="U385" s="105" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="V385" s="73" t="s">
         <v>1189</v>
@@ -32516,11 +32585,11 @@
       <c r="Q390" s="83"/>
       <c r="R390" s="83"/>
       <c r="S390" s="82" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="T390" s="83"/>
       <c r="U390" s="82" t="s">
-        <v>2580</v>
+        <v>759</v>
       </c>
       <c r="V390" s="83"/>
       <c r="W390" s="83"/>

--- a/test/files/FQ_BFR5.xlsx
+++ b/test/files/FQ_BFR5.xlsx
@@ -13019,12 +13019,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V391" sqref="V391"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="75" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="75" customWidth="1"/>
@@ -13054,7 +13054,7 @@
     <col min="26" max="16384" width="8.6640625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28">
+    <row r="1" spans="1:25" ht="13" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="13" customHeight="1">
       <c r="A2" s="73" t="s">
         <v>14</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="S2" s="75"/>
       <c r="U2" s="75"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="13" customHeight="1">
       <c r="A3" s="73" t="s">
         <v>16</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="S3" s="75"/>
       <c r="U3" s="75"/>
     </row>
-    <row r="4" spans="1:25" ht="126">
+    <row r="4" spans="1:25" ht="13" customHeight="1">
       <c r="A4" s="73" t="s">
         <v>20</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="73" t="s">
         <v>22</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" ht="13" customHeight="1">
       <c r="A6" s="73" t="s">
         <v>27</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="S6" s="75"/>
       <c r="U6" s="75"/>
     </row>
-    <row r="7" spans="1:25" ht="42">
+    <row r="7" spans="1:25" ht="13" customHeight="1">
       <c r="A7" s="73" t="s">
         <v>28</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="42">
+    <row r="8" spans="1:25" ht="13" customHeight="1">
       <c r="A8" s="73" t="s">
         <v>32</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="70">
+    <row r="9" spans="1:25" ht="13" customHeight="1">
       <c r="A9" s="73" t="s">
         <v>37</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="56">
+    <row r="10" spans="1:25" ht="13" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="131" customFormat="1">
+    <row r="11" spans="1:25" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A11" s="131" t="s">
         <v>37</v>
       </c>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:25" s="131" customFormat="1">
+    <row r="12" spans="1:25" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A12" s="131" t="s">
         <v>37</v>
       </c>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:25" s="131" customFormat="1">
+    <row r="13" spans="1:25" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A13" s="131" t="s">
         <v>37</v>
       </c>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:25" s="78" customFormat="1">
+    <row r="14" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A14" s="77" t="s">
         <v>37</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="X14" s="77"/>
       <c r="Y14" s="77"/>
     </row>
-    <row r="15" spans="1:25" ht="28">
+    <row r="15" spans="1:25" ht="13" customHeight="1">
       <c r="A15" s="73" t="s">
         <v>46</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="28">
+    <row r="16" spans="1:25" ht="13" customHeight="1">
       <c r="A16" s="73" t="s">
         <v>46</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="28">
+    <row r="17" spans="1:25" ht="13" customHeight="1">
       <c r="A17" s="73" t="s">
         <v>27</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="S17" s="75"/>
       <c r="U17" s="75"/>
     </row>
-    <row r="18" spans="1:25" s="78" customFormat="1" ht="168">
+    <row r="18" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A18" s="77" t="s">
         <v>14</v>
       </c>
@@ -13707,7 +13707,7 @@
       <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
     </row>
-    <row r="19" spans="1:25" ht="154">
+    <row r="19" spans="1:25" ht="13" customHeight="1">
       <c r="A19" s="73" t="s">
         <v>28</v>
       </c>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="Y19" s="75"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="13" customHeight="1">
       <c r="A20" s="73" t="s">
         <v>16</v>
       </c>
@@ -13790,7 +13790,7 @@
       <c r="S20" s="75"/>
       <c r="U20" s="75"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" ht="13" customHeight="1">
       <c r="A21" s="73" t="s">
         <v>37</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="28">
+    <row r="22" spans="1:25" ht="13" customHeight="1">
       <c r="A22" s="73" t="s">
         <v>28</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" ht="13" customHeight="1">
       <c r="A23" s="73" t="s">
         <v>27</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="S23" s="75"/>
       <c r="U23" s="75"/>
     </row>
-    <row r="24" spans="1:25" ht="42">
+    <row r="24" spans="1:25" ht="13" customHeight="1">
       <c r="A24" s="73" t="s">
         <v>37</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="42">
+    <row r="25" spans="1:25" ht="13" customHeight="1">
       <c r="A25" s="73" t="s">
         <v>16</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="S25" s="75"/>
       <c r="U25" s="75"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="13" customHeight="1">
       <c r="A26" s="73" t="s">
         <v>67</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="28">
+    <row r="27" spans="1:25" ht="13" customHeight="1">
       <c r="A27" s="73" t="s">
         <v>28</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="13" customHeight="1">
       <c r="A28" s="73" t="s">
         <v>27</v>
       </c>
@@ -14097,7 +14097,7 @@
       <c r="S28" s="75"/>
       <c r="U28" s="75"/>
     </row>
-    <row r="29" spans="1:25" s="78" customFormat="1" ht="70">
+    <row r="29" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A29" s="77" t="s">
         <v>67</v>
       </c>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="Y29" s="77"/>
     </row>
-    <row r="30" spans="1:25" ht="56">
+    <row r="30" spans="1:25" ht="13" customHeight="1">
       <c r="A30" s="73" t="s">
         <v>14</v>
       </c>
@@ -14182,7 +14182,7 @@
       <c r="S30" s="75"/>
       <c r="U30" s="75"/>
     </row>
-    <row r="31" spans="1:25" ht="28">
+    <row r="31" spans="1:25" ht="13" customHeight="1">
       <c r="A31" s="73" t="s">
         <v>16</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="S31" s="75"/>
       <c r="U31" s="75"/>
     </row>
-    <row r="32" spans="1:25" s="78" customFormat="1" ht="84">
+    <row r="32" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A32" s="77" t="s">
         <v>20</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="X32" s="77"/>
       <c r="Y32" s="77"/>
     </row>
-    <row r="33" spans="1:28" s="78" customFormat="1" ht="42">
+    <row r="33" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A33" s="77" t="s">
         <v>20</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="X33" s="77"/>
       <c r="Y33" s="77"/>
     </row>
-    <row r="34" spans="1:28" s="131" customFormat="1">
+    <row r="34" spans="1:28" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A34" s="131" t="s">
         <v>37</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="131" customFormat="1">
+    <row r="35" spans="1:28" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A35" s="131" t="s">
         <v>37</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="131" customFormat="1">
+    <row r="36" spans="1:28" s="131" customFormat="1" ht="13" customHeight="1">
       <c r="A36" s="131" t="s">
         <v>37</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="78" customFormat="1" ht="28">
+    <row r="37" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A37" s="77" t="s">
         <v>37</v>
       </c>
@@ -14410,7 +14410,7 @@
       <c r="X37" s="77"/>
       <c r="Y37" s="77"/>
     </row>
-    <row r="38" spans="1:28" s="78" customFormat="1" ht="28">
+    <row r="38" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A38" s="77" t="s">
         <v>46</v>
       </c>
@@ -14448,7 +14448,7 @@
       <c r="X38" s="77"/>
       <c r="Y38" s="77"/>
     </row>
-    <row r="39" spans="1:28" s="78" customFormat="1" ht="28">
+    <row r="39" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A39" s="77" t="s">
         <v>46</v>
       </c>
@@ -14486,7 +14486,7 @@
       <c r="X39" s="77"/>
       <c r="Y39" s="77"/>
     </row>
-    <row r="40" spans="1:28" ht="28">
+    <row r="40" spans="1:28" ht="13" customHeight="1">
       <c r="A40" s="73" t="s">
         <v>28</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="28">
+    <row r="41" spans="1:28" ht="13" customHeight="1">
       <c r="A41" s="73" t="s">
         <v>27</v>
       </c>
@@ -14557,7 +14557,7 @@
       <c r="S41" s="75"/>
       <c r="U41" s="75"/>
     </row>
-    <row r="42" spans="1:28" ht="409">
+    <row r="42" spans="1:28" ht="13" customHeight="1">
       <c r="A42" s="73" t="s">
         <v>28</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="42">
+    <row r="43" spans="1:28" ht="13" customHeight="1">
       <c r="A43" s="73" t="s">
         <v>28</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="56">
+    <row r="44" spans="1:28" ht="13" customHeight="1">
       <c r="A44" s="73" t="s">
         <v>94</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="79" customFormat="1" ht="70">
+    <row r="45" spans="1:28" s="79" customFormat="1" ht="13" customHeight="1">
       <c r="A45" s="79" t="s">
         <v>164</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="AA45" s="81"/>
       <c r="AB45" s="81"/>
     </row>
-    <row r="46" spans="1:28" s="78" customFormat="1" ht="252">
+    <row r="46" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A46" s="77" t="s">
         <v>20</v>
       </c>
@@ -14783,7 +14783,7 @@
       <c r="X46" s="77"/>
       <c r="Y46" s="77"/>
     </row>
-    <row r="47" spans="1:28" s="78" customFormat="1" ht="409">
+    <row r="47" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A47" s="77" t="s">
         <v>20</v>
       </c>
@@ -14829,7 +14829,7 @@
       <c r="X47" s="77"/>
       <c r="Y47" s="77"/>
     </row>
-    <row r="48" spans="1:28" s="78" customFormat="1" ht="70">
+    <row r="48" spans="1:28" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A48" s="78" t="s">
         <v>28</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="X48" s="77"/>
       <c r="Y48" s="77"/>
     </row>
-    <row r="49" spans="1:49" s="78" customFormat="1" ht="28">
+    <row r="49" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A49" s="78" t="s">
         <v>16</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="X49" s="77"/>
       <c r="Y49" s="77"/>
     </row>
-    <row r="50" spans="1:49" s="78" customFormat="1">
+    <row r="50" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="78" t="s">
         <v>32</v>
       </c>
@@ -14924,7 +14924,7 @@
       <c r="X50" s="77"/>
       <c r="Y50" s="77"/>
     </row>
-    <row r="51" spans="1:49" s="78" customFormat="1" ht="28">
+    <row r="51" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="78" t="s">
         <v>106</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="X51" s="77"/>
       <c r="Y51" s="77"/>
     </row>
-    <row r="52" spans="1:49" s="78" customFormat="1" ht="28">
+    <row r="52" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="78" t="s">
         <v>27</v>
       </c>
@@ -14970,7 +14970,7 @@
       <c r="X52" s="77"/>
       <c r="Y52" s="77"/>
     </row>
-    <row r="53" spans="1:49" s="78" customFormat="1" ht="56">
+    <row r="53" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="78" t="s">
         <v>14</v>
       </c>
@@ -14990,7 +14990,7 @@
       <c r="X53" s="77"/>
       <c r="Y53" s="77"/>
     </row>
-    <row r="54" spans="1:49" s="78" customFormat="1" ht="210">
+    <row r="54" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="77" t="s">
         <v>20</v>
       </c>
@@ -15036,7 +15036,7 @@
       <c r="X54" s="77"/>
       <c r="Y54" s="77"/>
     </row>
-    <row r="55" spans="1:49" ht="140">
+    <row r="55" spans="1:49" ht="13" customHeight="1">
       <c r="A55" s="73" t="s">
         <v>106</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="126">
+    <row r="56" spans="1:49" ht="13" customHeight="1">
       <c r="A56" s="73" t="s">
         <v>37</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="182">
+    <row r="57" spans="1:49" ht="13" customHeight="1">
       <c r="A57" s="73" t="s">
         <v>37</v>
       </c>
@@ -15192,7 +15192,7 @@
       </c>
       <c r="X57" s="131"/>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" ht="13" customHeight="1">
       <c r="A58" s="73" t="s">
         <v>14</v>
       </c>
@@ -15221,7 +15221,7 @@
       <c r="S58" s="75"/>
       <c r="U58" s="75"/>
     </row>
-    <row r="59" spans="1:49" s="85" customFormat="1" ht="112">
+    <row r="59" spans="1:49" s="85" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="84" t="s">
         <v>20</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="X59" s="84"/>
       <c r="Y59" s="84"/>
     </row>
-    <row r="60" spans="1:49" s="86" customFormat="1">
+    <row r="60" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="86" t="s">
         <v>16</v>
       </c>
@@ -15296,7 +15296,7 @@
       <c r="X60" s="75"/>
       <c r="Y60" s="75"/>
     </row>
-    <row r="61" spans="1:49" s="78" customFormat="1" ht="98">
+    <row r="61" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A61" s="77" t="s">
         <v>20</v>
       </c>
@@ -15360,7 +15360,7 @@
       <c r="AV61" s="77"/>
       <c r="AW61" s="77"/>
     </row>
-    <row r="62" spans="1:49" s="78" customFormat="1" ht="98">
+    <row r="62" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A62" s="77" t="s">
         <v>20</v>
       </c>
@@ -15424,7 +15424,7 @@
       <c r="AV62" s="77"/>
       <c r="AW62" s="77"/>
     </row>
-    <row r="63" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="63" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="86" t="s">
         <v>1697</v>
       </c>
@@ -15469,7 +15469,7 @@
       <c r="AS63" s="86"/>
       <c r="AT63" s="86"/>
     </row>
-    <row r="64" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="64" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="86" t="s">
         <v>124</v>
       </c>
@@ -15522,7 +15522,7 @@
       <c r="AS64" s="86"/>
       <c r="AT64" s="86"/>
     </row>
-    <row r="65" spans="1:70" s="89" customFormat="1" ht="84">
+    <row r="65" spans="1:70" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="86" t="s">
         <v>14</v>
       </c>
@@ -15559,7 +15559,7 @@
       <c r="AS65" s="91"/>
       <c r="AT65" s="86"/>
     </row>
-    <row r="66" spans="1:70" s="89" customFormat="1" ht="42">
+    <row r="66" spans="1:70" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="86" t="s">
         <v>14</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="AS66" s="91"/>
       <c r="AT66" s="86"/>
     </row>
-    <row r="67" spans="1:70" s="86" customFormat="1">
+    <row r="67" spans="1:70" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="86" t="s">
         <v>27</v>
       </c>
@@ -15613,7 +15613,7 @@
       <c r="X67" s="75"/>
       <c r="Y67" s="75"/>
     </row>
-    <row r="68" spans="1:70" ht="42">
+    <row r="68" spans="1:70" ht="13" customHeight="1">
       <c r="A68" s="73" t="s">
         <v>14</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="S68" s="75"/>
       <c r="U68" s="75"/>
     </row>
-    <row r="69" spans="1:70" ht="42">
+    <row r="69" spans="1:70" ht="13" customHeight="1">
       <c r="A69" s="73" t="s">
         <v>14</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="S69" s="75"/>
       <c r="U69" s="75"/>
     </row>
-    <row r="70" spans="1:70" ht="84">
+    <row r="70" spans="1:70" ht="13" customHeight="1">
       <c r="A70" s="73" t="s">
         <v>14</v>
       </c>
@@ -15700,7 +15700,7 @@
       <c r="S70" s="75"/>
       <c r="U70" s="75"/>
     </row>
-    <row r="71" spans="1:70" ht="84">
+    <row r="71" spans="1:70" ht="13" customHeight="1">
       <c r="A71" s="73" t="s">
         <v>14</v>
       </c>
@@ -15729,7 +15729,7 @@
       <c r="S71" s="75"/>
       <c r="U71" s="75"/>
     </row>
-    <row r="72" spans="1:70" ht="140">
+    <row r="72" spans="1:70" ht="13" customHeight="1">
       <c r="A72" s="73" t="s">
         <v>46</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="73" spans="1:70" s="74" customFormat="1">
+    <row r="73" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A73" s="73" t="s">
         <v>16</v>
       </c>
@@ -15868,7 +15868,7 @@
       <c r="BQ73" s="75"/>
       <c r="BR73" s="75"/>
     </row>
-    <row r="74" spans="1:70" s="74" customFormat="1" ht="238">
+    <row r="74" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A74" s="73" t="s">
         <v>20</v>
       </c>
@@ -15956,7 +15956,7 @@
       <c r="BQ74" s="75"/>
       <c r="BR74" s="75"/>
     </row>
-    <row r="75" spans="1:70" s="74" customFormat="1" ht="140">
+    <row r="75" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A75" s="73" t="s">
         <v>20</v>
       </c>
@@ -16044,7 +16044,7 @@
       <c r="BQ75" s="75"/>
       <c r="BR75" s="75"/>
     </row>
-    <row r="76" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="76" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A76" s="73" t="s">
         <v>20</v>
       </c>
@@ -16132,7 +16132,7 @@
       <c r="BQ76" s="75"/>
       <c r="BR76" s="75"/>
     </row>
-    <row r="77" spans="1:70" s="74" customFormat="1" ht="28">
+    <row r="77" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A77" s="73" t="s">
         <v>46</v>
       </c>
@@ -16226,7 +16226,7 @@
       <c r="BQ77" s="75"/>
       <c r="BR77" s="75"/>
     </row>
-    <row r="78" spans="1:70" s="74" customFormat="1">
+    <row r="78" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A78" s="73" t="s">
         <v>27</v>
       </c>
@@ -16304,7 +16304,7 @@
       <c r="BQ78" s="75"/>
       <c r="BR78" s="75"/>
     </row>
-    <row r="79" spans="1:70" s="78" customFormat="1" ht="126">
+    <row r="79" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A79" s="77" t="s">
         <v>139</v>
       </c>
@@ -16354,7 +16354,7 @@
       <c r="X79" s="77"/>
       <c r="Y79" s="77"/>
     </row>
-    <row r="80" spans="1:70" ht="98">
+    <row r="80" spans="1:70" ht="13" customHeight="1">
       <c r="A80" s="73" t="s">
         <v>141</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="42">
+    <row r="81" spans="1:46" ht="13" customHeight="1">
       <c r="A81" s="73" t="s">
         <v>143</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="82" spans="1:46" s="89" customFormat="1" ht="28">
+    <row r="82" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="86" t="s">
         <v>16</v>
       </c>
@@ -16490,7 +16490,7 @@
       <c r="AS82" s="86"/>
       <c r="AT82" s="86"/>
     </row>
-    <row r="83" spans="1:46" ht="120">
+    <row r="83" spans="1:46" ht="13" customHeight="1">
       <c r="A83" s="73" t="s">
         <v>20</v>
       </c>
@@ -16541,7 +16541,7 @@
       <c r="AS83" s="73"/>
       <c r="AT83" s="73"/>
     </row>
-    <row r="84" spans="1:46" s="89" customFormat="1" ht="28">
+    <row r="84" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A84" s="86" t="s">
         <v>1697</v>
       </c>
@@ -16586,7 +16586,7 @@
       <c r="AS84" s="86"/>
       <c r="AT84" s="86"/>
     </row>
-    <row r="85" spans="1:46" s="89" customFormat="1" ht="42">
+    <row r="85" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A85" s="86" t="s">
         <v>124</v>
       </c>
@@ -16639,7 +16639,7 @@
       <c r="AS85" s="86"/>
       <c r="AT85" s="86"/>
     </row>
-    <row r="86" spans="1:46" s="89" customFormat="1" ht="28">
+    <row r="86" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A86" s="86" t="s">
         <v>14</v>
       </c>
@@ -16676,7 +16676,7 @@
       <c r="AS86" s="86"/>
       <c r="AT86" s="86"/>
     </row>
-    <row r="87" spans="1:46" s="89" customFormat="1" ht="84">
+    <row r="87" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A87" s="86" t="s">
         <v>14</v>
       </c>
@@ -16713,7 +16713,7 @@
       <c r="AS87" s="86"/>
       <c r="AT87" s="86"/>
     </row>
-    <row r="88" spans="1:46" s="89" customFormat="1" ht="56">
+    <row r="88" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A88" s="86" t="s">
         <v>14</v>
       </c>
@@ -16750,7 +16750,7 @@
       <c r="AS88" s="86"/>
       <c r="AT88" s="86"/>
     </row>
-    <row r="89" spans="1:46" s="89" customFormat="1">
+    <row r="89" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A89" s="86" t="s">
         <v>27</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="AS89" s="86"/>
       <c r="AT89" s="86"/>
     </row>
-    <row r="90" spans="1:46" s="94" customFormat="1" ht="98">
+    <row r="90" spans="1:46" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A90" s="86" t="s">
         <v>20</v>
       </c>
@@ -16827,7 +16827,7 @@
       <c r="X90" s="75"/>
       <c r="Y90" s="75"/>
     </row>
-    <row r="91" spans="1:46" s="89" customFormat="1" ht="126">
+    <row r="91" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A91" s="86" t="s">
         <v>20</v>
       </c>
@@ -16874,7 +16874,7 @@
       <c r="AS91" s="86"/>
       <c r="AT91" s="86"/>
     </row>
-    <row r="92" spans="1:46" s="89" customFormat="1" ht="168">
+    <row r="92" spans="1:46" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A92" s="86" t="s">
         <v>20</v>
       </c>
@@ -16921,7 +16921,7 @@
       <c r="AS92" s="86"/>
       <c r="AT92" s="86"/>
     </row>
-    <row r="93" spans="1:46" ht="42">
+    <row r="93" spans="1:46" ht="13" customHeight="1">
       <c r="A93" s="73" t="s">
         <v>14</v>
       </c>
@@ -16953,7 +16953,7 @@
       <c r="S93" s="75"/>
       <c r="U93" s="75"/>
     </row>
-    <row r="94" spans="1:46" ht="42">
+    <row r="94" spans="1:46" ht="13" customHeight="1">
       <c r="A94" s="73" t="s">
         <v>14</v>
       </c>
@@ -16985,7 +16985,7 @@
       <c r="S94" s="75"/>
       <c r="U94" s="75"/>
     </row>
-    <row r="95" spans="1:46" ht="182">
+    <row r="95" spans="1:46" ht="13" customHeight="1">
       <c r="A95" s="73" t="s">
         <v>14</v>
       </c>
@@ -17017,7 +17017,7 @@
       <c r="S95" s="75"/>
       <c r="U95" s="75"/>
     </row>
-    <row r="96" spans="1:46" ht="98">
+    <row r="96" spans="1:46" ht="13" customHeight="1">
       <c r="A96" s="73" t="s">
         <v>28</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="97" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="97" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A97" s="86" t="s">
         <v>16</v>
       </c>
@@ -17108,7 +17108,7 @@
       <c r="AS97" s="86"/>
       <c r="AT97" s="86"/>
     </row>
-    <row r="98" spans="1:49" s="78" customFormat="1" ht="120">
+    <row r="98" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A98" s="77" t="s">
         <v>20</v>
       </c>
@@ -17170,7 +17170,7 @@
       <c r="AV98" s="77"/>
       <c r="AW98" s="77"/>
     </row>
-    <row r="99" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="99" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A99" s="86" t="s">
         <v>1697</v>
       </c>
@@ -17215,7 +17215,7 @@
       <c r="AS99" s="86"/>
       <c r="AT99" s="86"/>
     </row>
-    <row r="100" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="100" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A100" s="86" t="s">
         <v>124</v>
       </c>
@@ -17268,7 +17268,7 @@
       <c r="AS100" s="86"/>
       <c r="AT100" s="86"/>
     </row>
-    <row r="101" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="101" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A101" s="86" t="s">
         <v>14</v>
       </c>
@@ -17305,7 +17305,7 @@
       <c r="AS101" s="86"/>
       <c r="AT101" s="86"/>
     </row>
-    <row r="102" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="102" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A102" s="86" t="s">
         <v>14</v>
       </c>
@@ -17342,7 +17342,7 @@
       <c r="AS102" s="86"/>
       <c r="AT102" s="86"/>
     </row>
-    <row r="103" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="103" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A103" s="86" t="s">
         <v>14</v>
       </c>
@@ -17379,7 +17379,7 @@
       <c r="AS103" s="86"/>
       <c r="AT103" s="86"/>
     </row>
-    <row r="104" spans="1:49" s="89" customFormat="1">
+    <row r="104" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A104" s="86" t="s">
         <v>27</v>
       </c>
@@ -17414,7 +17414,7 @@
       <c r="AS104" s="86"/>
       <c r="AT104" s="86"/>
     </row>
-    <row r="105" spans="1:49" s="94" customFormat="1" ht="98">
+    <row r="105" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="86" t="s">
         <v>20</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="X105" s="75"/>
       <c r="Y105" s="75"/>
     </row>
-    <row r="106" spans="1:49" s="89" customFormat="1" ht="126">
+    <row r="106" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A106" s="86" t="s">
         <v>20</v>
       </c>
@@ -17503,7 +17503,7 @@
       <c r="AS106" s="86"/>
       <c r="AT106" s="86"/>
     </row>
-    <row r="107" spans="1:49" s="89" customFormat="1" ht="126">
+    <row r="107" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A107" s="86" t="s">
         <v>20</v>
       </c>
@@ -17550,7 +17550,7 @@
       <c r="AS107" s="86"/>
       <c r="AT107" s="86"/>
     </row>
-    <row r="108" spans="1:49" s="89" customFormat="1" ht="224">
+    <row r="108" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A108" s="86" t="s">
         <v>20</v>
       </c>
@@ -17597,7 +17597,7 @@
       <c r="AS108" s="86"/>
       <c r="AT108" s="86"/>
     </row>
-    <row r="109" spans="1:49" s="89" customFormat="1" ht="140">
+    <row r="109" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A109" s="86" t="s">
         <v>20</v>
       </c>
@@ -17644,7 +17644,7 @@
       <c r="AS109" s="86"/>
       <c r="AT109" s="86"/>
     </row>
-    <row r="110" spans="1:49" ht="56">
+    <row r="110" spans="1:49" ht="13" customHeight="1">
       <c r="A110" s="73" t="s">
         <v>14</v>
       </c>
@@ -17676,7 +17676,7 @@
       <c r="S110" s="75"/>
       <c r="U110" s="75"/>
     </row>
-    <row r="111" spans="1:49" ht="42">
+    <row r="111" spans="1:49" ht="13" customHeight="1">
       <c r="A111" s="73" t="s">
         <v>14</v>
       </c>
@@ -17708,7 +17708,7 @@
       <c r="S111" s="75"/>
       <c r="U111" s="75"/>
     </row>
-    <row r="112" spans="1:49" ht="210">
+    <row r="112" spans="1:49" ht="13" customHeight="1">
       <c r="A112" s="73" t="s">
         <v>14</v>
       </c>
@@ -17740,7 +17740,7 @@
       <c r="S112" s="75"/>
       <c r="U112" s="75"/>
     </row>
-    <row r="113" spans="1:49" ht="112">
+    <row r="113" spans="1:49" ht="13" customHeight="1">
       <c r="A113" s="73" t="s">
         <v>28</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="114" spans="1:49" s="78" customFormat="1" ht="70">
+    <row r="114" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A114" s="77" t="s">
         <v>164</v>
       </c>
@@ -17832,7 +17832,7 @@
       <c r="X114" s="77"/>
       <c r="Y114" s="77"/>
     </row>
-    <row r="115" spans="1:49" s="85" customFormat="1" ht="98">
+    <row r="115" spans="1:49" s="85" customFormat="1" ht="13" customHeight="1">
       <c r="A115" s="84" t="s">
         <v>20</v>
       </c>
@@ -17882,7 +17882,7 @@
       <c r="X115" s="84"/>
       <c r="Y115" s="84"/>
     </row>
-    <row r="116" spans="1:49" s="78" customFormat="1" ht="70">
+    <row r="116" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A116" s="77" t="s">
         <v>205</v>
       </c>
@@ -17928,7 +17928,7 @@
       <c r="X116" s="77"/>
       <c r="Y116" s="77"/>
     </row>
-    <row r="117" spans="1:49" s="78" customFormat="1" ht="42">
+    <row r="117" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A117" s="77" t="s">
         <v>46</v>
       </c>
@@ -17978,7 +17978,7 @@
       <c r="X117" s="77"/>
       <c r="Y117" s="77"/>
     </row>
-    <row r="118" spans="1:49" s="89" customFormat="1">
+    <row r="118" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A118" s="86" t="s">
         <v>16</v>
       </c>
@@ -18021,7 +18021,7 @@
       <c r="AS118" s="86"/>
       <c r="AT118" s="86"/>
     </row>
-    <row r="119" spans="1:49" s="78" customFormat="1" ht="294">
+    <row r="119" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A119" s="77" t="s">
         <v>20</v>
       </c>
@@ -18083,7 +18083,7 @@
       <c r="AV119" s="77"/>
       <c r="AW119" s="77"/>
     </row>
-    <row r="120" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="120" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A120" s="86" t="s">
         <v>1697</v>
       </c>
@@ -18128,7 +18128,7 @@
       <c r="AS120" s="86"/>
       <c r="AT120" s="86"/>
     </row>
-    <row r="121" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="121" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A121" s="86" t="s">
         <v>124</v>
       </c>
@@ -18181,7 +18181,7 @@
       <c r="AS121" s="86"/>
       <c r="AT121" s="86"/>
     </row>
-    <row r="122" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="122" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A122" s="86" t="s">
         <v>14</v>
       </c>
@@ -18218,7 +18218,7 @@
       <c r="AS122" s="86"/>
       <c r="AT122" s="86"/>
     </row>
-    <row r="123" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="123" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A123" s="86" t="s">
         <v>14</v>
       </c>
@@ -18255,7 +18255,7 @@
       <c r="AS123" s="86"/>
       <c r="AT123" s="86"/>
     </row>
-    <row r="124" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="124" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A124" s="86" t="s">
         <v>14</v>
       </c>
@@ -18292,7 +18292,7 @@
       <c r="AS124" s="86"/>
       <c r="AT124" s="86"/>
     </row>
-    <row r="125" spans="1:49" s="89" customFormat="1">
+    <row r="125" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A125" s="86" t="s">
         <v>27</v>
       </c>
@@ -18327,7 +18327,7 @@
       <c r="AS125" s="86"/>
       <c r="AT125" s="86"/>
     </row>
-    <row r="126" spans="1:49" s="94" customFormat="1" ht="70">
+    <row r="126" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A126" s="86" t="s">
         <v>20</v>
       </c>
@@ -18369,7 +18369,7 @@
       <c r="X126" s="75"/>
       <c r="Y126" s="75"/>
     </row>
-    <row r="127" spans="1:49" s="94" customFormat="1" ht="84">
+    <row r="127" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A127" s="86" t="s">
         <v>20</v>
       </c>
@@ -18411,7 +18411,7 @@
       <c r="X127" s="75"/>
       <c r="Y127" s="75"/>
     </row>
-    <row r="128" spans="1:49" s="89" customFormat="1">
+    <row r="128" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A128" s="86" t="s">
         <v>16</v>
       </c>
@@ -18454,7 +18454,7 @@
       <c r="AS128" s="86"/>
       <c r="AT128" s="86"/>
     </row>
-    <row r="129" spans="1:49" s="78" customFormat="1" ht="98">
+    <row r="129" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A129" s="77" t="s">
         <v>20</v>
       </c>
@@ -18516,7 +18516,7 @@
       <c r="AV129" s="77"/>
       <c r="AW129" s="77"/>
     </row>
-    <row r="130" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="130" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A130" s="86" t="s">
         <v>1697</v>
       </c>
@@ -18561,7 +18561,7 @@
       <c r="AS130" s="86"/>
       <c r="AT130" s="86"/>
     </row>
-    <row r="131" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="131" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A131" s="86" t="s">
         <v>124</v>
       </c>
@@ -18614,7 +18614,7 @@
       <c r="AS131" s="86"/>
       <c r="AT131" s="86"/>
     </row>
-    <row r="132" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="132" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A132" s="86" t="s">
         <v>14</v>
       </c>
@@ -18651,7 +18651,7 @@
       <c r="AS132" s="86"/>
       <c r="AT132" s="86"/>
     </row>
-    <row r="133" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="133" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A133" s="86" t="s">
         <v>14</v>
       </c>
@@ -18688,7 +18688,7 @@
       <c r="AS133" s="86"/>
       <c r="AT133" s="86"/>
     </row>
-    <row r="134" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="134" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A134" s="86" t="s">
         <v>14</v>
       </c>
@@ -18725,7 +18725,7 @@
       <c r="AS134" s="86"/>
       <c r="AT134" s="86"/>
     </row>
-    <row r="135" spans="1:49" s="89" customFormat="1">
+    <row r="135" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A135" s="86" t="s">
         <v>27</v>
       </c>
@@ -18760,7 +18760,7 @@
       <c r="AS135" s="86"/>
       <c r="AT135" s="86"/>
     </row>
-    <row r="136" spans="1:49" s="94" customFormat="1" ht="70">
+    <row r="136" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A136" s="86" t="s">
         <v>20</v>
       </c>
@@ -18802,7 +18802,7 @@
       <c r="X136" s="75"/>
       <c r="Y136" s="75"/>
     </row>
-    <row r="137" spans="1:49" s="94" customFormat="1" ht="98">
+    <row r="137" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A137" s="86" t="s">
         <v>20</v>
       </c>
@@ -18844,7 +18844,7 @@
       <c r="X137" s="75"/>
       <c r="Y137" s="75"/>
     </row>
-    <row r="138" spans="1:49" s="89" customFormat="1" ht="168">
+    <row r="138" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A138" s="86" t="s">
         <v>20</v>
       </c>
@@ -18891,7 +18891,7 @@
       <c r="AS138" s="86"/>
       <c r="AT138" s="86"/>
     </row>
-    <row r="139" spans="1:49" s="89" customFormat="1" ht="98">
+    <row r="139" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A139" s="86" t="s">
         <v>20</v>
       </c>
@@ -18938,7 +18938,7 @@
       <c r="AS139" s="86"/>
       <c r="AT139" s="86"/>
     </row>
-    <row r="140" spans="1:49" ht="28">
+    <row r="140" spans="1:49" ht="13" customHeight="1">
       <c r="A140" s="73" t="s">
         <v>184</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="141" spans="1:49" ht="56">
+    <row r="141" spans="1:49" ht="13" customHeight="1">
       <c r="A141" s="73" t="s">
         <v>14</v>
       </c>
@@ -19009,7 +19009,7 @@
       <c r="S141" s="75"/>
       <c r="U141" s="75"/>
     </row>
-    <row r="142" spans="1:49" ht="42">
+    <row r="142" spans="1:49" ht="13" customHeight="1">
       <c r="A142" s="73" t="s">
         <v>14</v>
       </c>
@@ -19041,7 +19041,7 @@
       <c r="S142" s="75"/>
       <c r="U142" s="75"/>
     </row>
-    <row r="143" spans="1:49">
+    <row r="143" spans="1:49" ht="13" customHeight="1">
       <c r="A143" s="73" t="s">
         <v>16</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="28">
+    <row r="144" spans="1:49" ht="13" customHeight="1">
       <c r="A144" s="73" t="s">
         <v>20</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:70" ht="28">
+    <row r="145" spans="1:70" ht="13" customHeight="1">
       <c r="A145" s="73" t="s">
         <v>20</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="146" spans="1:70" ht="140">
+    <row r="146" spans="1:70" ht="13" customHeight="1">
       <c r="A146" s="73" t="s">
         <v>46</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="147" spans="1:70" s="74" customFormat="1">
+    <row r="147" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A147" s="73" t="s">
         <v>27</v>
       </c>
@@ -19281,7 +19281,7 @@
       <c r="BQ147" s="75"/>
       <c r="BR147" s="75"/>
     </row>
-    <row r="148" spans="1:70" ht="112">
+    <row r="148" spans="1:70" ht="13" customHeight="1">
       <c r="A148" s="73" t="s">
         <v>168</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:70" ht="126">
+    <row r="149" spans="1:70" ht="13" customHeight="1">
       <c r="A149" s="73" t="s">
         <v>14</v>
       </c>
@@ -19359,7 +19359,7 @@
       <c r="S149" s="75"/>
       <c r="U149" s="75"/>
     </row>
-    <row r="150" spans="1:70" ht="84">
+    <row r="150" spans="1:70" ht="13" customHeight="1">
       <c r="A150" s="73" t="s">
         <v>28</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:70" ht="112">
+    <row r="151" spans="1:70" ht="13" customHeight="1">
       <c r="A151" s="73" t="s">
         <v>46</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:70" ht="294">
+    <row r="152" spans="1:70" ht="13" customHeight="1">
       <c r="A152" s="73" t="s">
         <v>28</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:70" ht="84">
+    <row r="153" spans="1:70" ht="13" customHeight="1">
       <c r="A153" s="73" t="s">
         <v>28</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:70" s="74" customFormat="1" ht="28">
+    <row r="154" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A154" s="73" t="s">
         <v>16</v>
       </c>
@@ -19661,7 +19661,7 @@
       <c r="BQ154" s="75"/>
       <c r="BR154" s="75"/>
     </row>
-    <row r="155" spans="1:70" s="74" customFormat="1" ht="98">
+    <row r="155" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A155" s="73" t="s">
         <v>20</v>
       </c>
@@ -19751,7 +19751,7 @@
       <c r="BQ155" s="75"/>
       <c r="BR155" s="75"/>
     </row>
-    <row r="156" spans="1:70" s="74" customFormat="1" ht="42">
+    <row r="156" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A156" s="73" t="s">
         <v>20</v>
       </c>
@@ -19841,7 +19841,7 @@
       <c r="BQ156" s="75"/>
       <c r="BR156" s="75"/>
     </row>
-    <row r="157" spans="1:70" s="74" customFormat="1" ht="84">
+    <row r="157" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A157" s="73" t="s">
         <v>20</v>
       </c>
@@ -19931,7 +19931,7 @@
       <c r="BQ157" s="75"/>
       <c r="BR157" s="75"/>
     </row>
-    <row r="158" spans="1:70" s="74" customFormat="1" ht="84">
+    <row r="158" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A158" s="73" t="s">
         <v>20</v>
       </c>
@@ -20021,7 +20021,7 @@
       <c r="BQ158" s="75"/>
       <c r="BR158" s="75"/>
     </row>
-    <row r="159" spans="1:70" s="74" customFormat="1" ht="42">
+    <row r="159" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A159" s="73" t="s">
         <v>203</v>
       </c>
@@ -20107,7 +20107,7 @@
       <c r="BQ159" s="75"/>
       <c r="BR159" s="75"/>
     </row>
-    <row r="160" spans="1:70" s="74" customFormat="1">
+    <row r="160" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A160" s="73" t="s">
         <v>27</v>
       </c>
@@ -20185,7 +20185,7 @@
       <c r="BQ160" s="75"/>
       <c r="BR160" s="75"/>
     </row>
-    <row r="161" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="161" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A161" s="77" t="s">
         <v>20</v>
       </c>
@@ -20229,7 +20229,7 @@
       <c r="X161" s="77"/>
       <c r="Y161" s="77"/>
     </row>
-    <row r="162" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="162" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A162" s="73" t="s">
         <v>794</v>
       </c>
@@ -20321,7 +20321,7 @@
       <c r="BQ162" s="75"/>
       <c r="BR162" s="75"/>
     </row>
-    <row r="163" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="163" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A163" s="73" t="s">
         <v>797</v>
       </c>
@@ -20413,7 +20413,7 @@
       <c r="BQ163" s="75"/>
       <c r="BR163" s="75"/>
     </row>
-    <row r="164" spans="1:70" s="74" customFormat="1" ht="70">
+    <row r="164" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A164" s="73" t="s">
         <v>797</v>
       </c>
@@ -20505,7 +20505,7 @@
       <c r="BQ164" s="75"/>
       <c r="BR164" s="75"/>
     </row>
-    <row r="165" spans="1:70" s="74" customFormat="1" ht="280">
+    <row r="165" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A165" s="73" t="s">
         <v>198</v>
       </c>
@@ -20601,7 +20601,7 @@
       <c r="BQ165" s="75"/>
       <c r="BR165" s="75"/>
     </row>
-    <row r="166" spans="1:70" s="74" customFormat="1" ht="280">
+    <row r="166" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A166" s="73" t="s">
         <v>198</v>
       </c>
@@ -20699,7 +20699,7 @@
       <c r="BQ166" s="75"/>
       <c r="BR166" s="75"/>
     </row>
-    <row r="167" spans="1:70" s="74" customFormat="1" ht="280">
+    <row r="167" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A167" s="73" t="s">
         <v>198</v>
       </c>
@@ -20795,7 +20795,7 @@
       <c r="BQ167" s="75"/>
       <c r="BR167" s="75"/>
     </row>
-    <row r="168" spans="1:70" s="74" customFormat="1" ht="406">
+    <row r="168" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A168" s="73" t="s">
         <v>14</v>
       </c>
@@ -20875,7 +20875,7 @@
       <c r="BQ168" s="75"/>
       <c r="BR168" s="75"/>
     </row>
-    <row r="169" spans="1:70" s="74" customFormat="1" ht="168">
+    <row r="169" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A169" s="73" t="s">
         <v>46</v>
       </c>
@@ -20973,7 +20973,7 @@
       <c r="BQ169" s="75"/>
       <c r="BR169" s="75"/>
     </row>
-    <row r="170" spans="1:70" s="85" customFormat="1" ht="409">
+    <row r="170" spans="1:70" s="85" customFormat="1" ht="13" customHeight="1">
       <c r="A170" s="84" t="s">
         <v>20</v>
       </c>
@@ -21021,7 +21021,7 @@
       <c r="X170" s="84"/>
       <c r="Y170" s="84"/>
     </row>
-    <row r="171" spans="1:70" ht="84">
+    <row r="171" spans="1:70" ht="13" customHeight="1">
       <c r="A171" s="73" t="s">
         <v>205</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="172" spans="1:70" ht="84">
+    <row r="172" spans="1:70" ht="13" customHeight="1">
       <c r="A172" s="73" t="s">
         <v>205</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="173" spans="1:70" ht="126">
+    <row r="173" spans="1:70" ht="13" customHeight="1">
       <c r="A173" s="73" t="s">
         <v>205</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:70" ht="84">
+    <row r="174" spans="1:70" ht="13" customHeight="1">
       <c r="A174" s="73" t="s">
         <v>205</v>
       </c>
@@ -21207,7 +21207,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:70" ht="112">
+    <row r="175" spans="1:70" ht="13" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>205</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="176" spans="1:70" ht="84">
+    <row r="176" spans="1:70" ht="13" customHeight="1">
       <c r="A176" s="73" t="s">
         <v>205</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="126">
+    <row r="177" spans="1:25" ht="13" customHeight="1">
       <c r="A177" s="73" t="s">
         <v>205</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="84">
+    <row r="178" spans="1:25" ht="13" customHeight="1">
       <c r="A178" s="73" t="s">
         <v>205</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="84">
+    <row r="179" spans="1:25" ht="13" customHeight="1">
       <c r="A179" s="73" t="s">
         <v>205</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="98">
+    <row r="180" spans="1:25" ht="13" customHeight="1">
       <c r="A180" s="73" t="s">
         <v>205</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="140">
+    <row r="181" spans="1:25" ht="13" customHeight="1">
       <c r="A181" s="73" t="s">
         <v>205</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="154">
+    <row r="182" spans="1:25" ht="13" customHeight="1">
       <c r="A182" s="73" t="s">
         <v>205</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="42">
+    <row r="183" spans="1:25" ht="13" customHeight="1">
       <c r="A183" s="73" t="s">
         <v>205</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="112">
+    <row r="184" spans="1:25" ht="13" customHeight="1">
       <c r="A184" s="73" t="s">
         <v>205</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="98">
+    <row r="185" spans="1:25" ht="13" customHeight="1">
       <c r="A185" s="73" t="s">
         <v>205</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="56">
+    <row r="186" spans="1:25" ht="13" customHeight="1">
       <c r="A186" s="73" t="s">
         <v>205</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="140">
+    <row r="187" spans="1:25" ht="13" customHeight="1">
       <c r="A187" s="73" t="s">
         <v>205</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="188" spans="1:25" s="78" customFormat="1" ht="28">
+    <row r="188" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A188" s="77" t="s">
         <v>16</v>
       </c>
@@ -21852,7 +21852,7 @@
       <c r="X188" s="77"/>
       <c r="Y188" s="77"/>
     </row>
-    <row r="189" spans="1:25" s="78" customFormat="1" ht="112">
+    <row r="189" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A189" s="77" t="s">
         <v>230</v>
       </c>
@@ -21906,7 +21906,7 @@
       </c>
       <c r="Y189" s="77"/>
     </row>
-    <row r="190" spans="1:25" s="78" customFormat="1" ht="28">
+    <row r="190" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A190" s="77" t="s">
         <v>106</v>
       </c>
@@ -21946,7 +21946,7 @@
       <c r="X190" s="77"/>
       <c r="Y190" s="77"/>
     </row>
-    <row r="191" spans="1:25" s="78" customFormat="1" ht="28">
+    <row r="191" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A191" s="77" t="s">
         <v>27</v>
       </c>
@@ -21976,7 +21976,7 @@
       <c r="X191" s="77"/>
       <c r="Y191" s="77"/>
     </row>
-    <row r="192" spans="1:25" s="78" customFormat="1" ht="70">
+    <row r="192" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A192" s="77" t="s">
         <v>14</v>
       </c>
@@ -22016,7 +22016,7 @@
       <c r="X192" s="77"/>
       <c r="Y192" s="77"/>
     </row>
-    <row r="193" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="193" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A193" s="77" t="s">
         <v>1053</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="194" spans="1:70" s="78" customFormat="1" ht="56">
+    <row r="194" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A194" s="77" t="s">
         <v>205</v>
       </c>
@@ -22116,7 +22116,7 @@
       <c r="X194" s="77"/>
       <c r="Y194" s="77"/>
     </row>
-    <row r="195" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="195" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A195" s="77" t="s">
         <v>205</v>
       </c>
@@ -22161,7 +22161,7 @@
       <c r="X195" s="77"/>
       <c r="Y195" s="77"/>
     </row>
-    <row r="196" spans="1:70" s="138" customFormat="1" ht="168">
+    <row r="196" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A196" s="133" t="s">
         <v>28</v>
       </c>
@@ -22259,7 +22259,7 @@
       <c r="BQ196" s="137"/>
       <c r="BR196" s="137"/>
     </row>
-    <row r="197" spans="1:70" s="138" customFormat="1" ht="28">
+    <row r="197" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A197" s="139" t="s">
         <v>1035</v>
       </c>
@@ -22353,7 +22353,7 @@
       <c r="BQ197" s="137"/>
       <c r="BR197" s="137"/>
     </row>
-    <row r="198" spans="1:70" s="138" customFormat="1" ht="84">
+    <row r="198" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A198" s="141" t="s">
         <v>205</v>
       </c>
@@ -22445,7 +22445,7 @@
       <c r="BQ198" s="137"/>
       <c r="BR198" s="137"/>
     </row>
-    <row r="199" spans="1:70" s="138" customFormat="1" ht="210">
+    <row r="199" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A199" s="141" t="s">
         <v>1040</v>
       </c>
@@ -22541,7 +22541,7 @@
       <c r="BQ199" s="137"/>
       <c r="BR199" s="137"/>
     </row>
-    <row r="200" spans="1:70" s="137" customFormat="1" ht="98">
+    <row r="200" spans="1:70" s="137" customFormat="1" ht="13" customHeight="1">
       <c r="A200" s="141" t="s">
         <v>14</v>
       </c>
@@ -22573,7 +22573,7 @@
       <c r="X200" s="136"/>
       <c r="Y200" s="136"/>
     </row>
-    <row r="201" spans="1:70" s="148" customFormat="1" ht="56">
+    <row r="201" spans="1:70" s="148" customFormat="1" ht="13" customHeight="1">
       <c r="A201" s="144" t="s">
         <v>46</v>
       </c>
@@ -22671,7 +22671,7 @@
       <c r="BQ201" s="147"/>
       <c r="BR201" s="147"/>
     </row>
-    <row r="202" spans="1:70" s="78" customFormat="1" ht="84">
+    <row r="202" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A202" s="77" t="s">
         <v>205</v>
       </c>
@@ -22717,7 +22717,7 @@
       <c r="X202" s="77"/>
       <c r="Y202" s="77"/>
     </row>
-    <row r="203" spans="1:70" ht="112">
+    <row r="203" spans="1:70" ht="13" customHeight="1">
       <c r="A203" s="73" t="s">
         <v>205</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="204" spans="1:70" ht="70">
+    <row r="204" spans="1:70" ht="13" customHeight="1">
       <c r="A204" s="73" t="s">
         <v>205</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="205" spans="1:70" ht="70">
+    <row r="205" spans="1:70" ht="13" customHeight="1">
       <c r="A205" s="73" t="s">
         <v>205</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="206" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="206" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A206" s="77" t="s">
         <v>16</v>
       </c>
@@ -22887,7 +22887,7 @@
       <c r="X206" s="77"/>
       <c r="Y206" s="77"/>
     </row>
-    <row r="207" spans="1:70" s="78" customFormat="1" ht="126">
+    <row r="207" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A207" s="77" t="s">
         <v>246</v>
       </c>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="Y207" s="77"/>
     </row>
-    <row r="208" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="208" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A208" s="77" t="s">
         <v>106</v>
       </c>
@@ -22977,7 +22977,7 @@
       <c r="X208" s="77"/>
       <c r="Y208" s="77"/>
     </row>
-    <row r="209" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="209" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A209" s="77" t="s">
         <v>27</v>
       </c>
@@ -23007,7 +23007,7 @@
       <c r="X209" s="77"/>
       <c r="Y209" s="77"/>
     </row>
-    <row r="210" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="210" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A210" s="77" t="s">
         <v>1053</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="211" spans="1:70" ht="42">
+    <row r="211" spans="1:70" ht="13" customHeight="1">
       <c r="A211" s="73" t="s">
         <v>14</v>
       </c>
@@ -23092,7 +23092,7 @@
       <c r="X211" s="77"/>
       <c r="Y211" s="77"/>
     </row>
-    <row r="212" spans="1:70" ht="56">
+    <row r="212" spans="1:70" ht="13" customHeight="1">
       <c r="A212" s="73" t="s">
         <v>14</v>
       </c>
@@ -23123,7 +23123,7 @@
       <c r="X212" s="77"/>
       <c r="Y212" s="77"/>
     </row>
-    <row r="213" spans="1:70" ht="84">
+    <row r="213" spans="1:70" ht="13" customHeight="1">
       <c r="A213" s="73" t="s">
         <v>14</v>
       </c>
@@ -23154,7 +23154,7 @@
       <c r="X213" s="77"/>
       <c r="Y213" s="77"/>
     </row>
-    <row r="214" spans="1:70" ht="126">
+    <row r="214" spans="1:70" ht="13" customHeight="1">
       <c r="A214" s="73" t="s">
         <v>14</v>
       </c>
@@ -23185,7 +23185,7 @@
       <c r="X214" s="77"/>
       <c r="Y214" s="77"/>
     </row>
-    <row r="215" spans="1:70" ht="84">
+    <row r="215" spans="1:70" ht="13" customHeight="1">
       <c r="A215" s="73" t="s">
         <v>164</v>
       </c>
@@ -23231,7 +23231,7 @@
       <c r="X215" s="77"/>
       <c r="Y215" s="77"/>
     </row>
-    <row r="216" spans="1:70" ht="70">
+    <row r="216" spans="1:70" ht="13" customHeight="1">
       <c r="A216" s="73" t="s">
         <v>843</v>
       </c>
@@ -23277,7 +23277,7 @@
       <c r="X216" s="77"/>
       <c r="Y216" s="77"/>
     </row>
-    <row r="217" spans="1:70" s="99" customFormat="1" ht="56">
+    <row r="217" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A217" s="77" t="s">
         <v>14</v>
       </c>
@@ -23357,7 +23357,7 @@
       <c r="BQ217" s="77"/>
       <c r="BR217" s="77"/>
     </row>
-    <row r="218" spans="1:70" s="103" customFormat="1" ht="182">
+    <row r="218" spans="1:70" s="103" customFormat="1" ht="13" customHeight="1">
       <c r="A218" s="77" t="s">
         <v>46</v>
       </c>
@@ -23455,7 +23455,7 @@
       <c r="BQ218" s="101"/>
       <c r="BR218" s="101"/>
     </row>
-    <row r="219" spans="1:70" s="86" customFormat="1">
+    <row r="219" spans="1:70" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A219" s="86" t="s">
         <v>16</v>
       </c>
@@ -23480,7 +23480,7 @@
       <c r="X219" s="75"/>
       <c r="Y219" s="75"/>
     </row>
-    <row r="220" spans="1:70" s="78" customFormat="1" ht="84">
+    <row r="220" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A220" s="77" t="s">
         <v>20</v>
       </c>
@@ -23550,7 +23550,7 @@
       <c r="AV220" s="77"/>
       <c r="AW220" s="77"/>
     </row>
-    <row r="221" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="221" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A221" s="77" t="s">
         <v>20</v>
       </c>
@@ -23610,7 +23610,7 @@
       <c r="AV221" s="77"/>
       <c r="AW221" s="77"/>
     </row>
-    <row r="222" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="222" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A222" s="77" t="s">
         <v>20</v>
       </c>
@@ -23670,7 +23670,7 @@
       <c r="AV222" s="77"/>
       <c r="AW222" s="77"/>
     </row>
-    <row r="223" spans="1:70" s="89" customFormat="1" ht="28">
+    <row r="223" spans="1:70" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A223" s="86" t="s">
         <v>1697</v>
       </c>
@@ -23715,7 +23715,7 @@
       <c r="AS223" s="86"/>
       <c r="AT223" s="86"/>
     </row>
-    <row r="224" spans="1:70" s="89" customFormat="1" ht="56">
+    <row r="224" spans="1:70" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A224" s="86" t="s">
         <v>124</v>
       </c>
@@ -23768,7 +23768,7 @@
       <c r="AS224" s="86"/>
       <c r="AT224" s="86"/>
     </row>
-    <row r="225" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="225" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A225" s="86" t="s">
         <v>14</v>
       </c>
@@ -23805,7 +23805,7 @@
       <c r="AS225" s="86"/>
       <c r="AT225" s="86"/>
     </row>
-    <row r="226" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="226" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A226" s="86" t="s">
         <v>14</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="AS226" s="86"/>
       <c r="AT226" s="86"/>
     </row>
-    <row r="227" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="227" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A227" s="86" t="s">
         <v>14</v>
       </c>
@@ -23879,7 +23879,7 @@
       <c r="AS227" s="86"/>
       <c r="AT227" s="86"/>
     </row>
-    <row r="228" spans="1:49" s="86" customFormat="1">
+    <row r="228" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A228" s="86" t="s">
         <v>27</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="X228" s="75"/>
       <c r="Y228" s="75"/>
     </row>
-    <row r="229" spans="1:49" s="94" customFormat="1" ht="70">
+    <row r="229" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A229" s="86" t="s">
         <v>20</v>
       </c>
@@ -23938,7 +23938,7 @@
       <c r="X229" s="75"/>
       <c r="Y229" s="75"/>
     </row>
-    <row r="230" spans="1:49" s="94" customFormat="1" ht="112">
+    <row r="230" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A230" s="86" t="s">
         <v>20</v>
       </c>
@@ -23998,7 +23998,7 @@
       <c r="AP230" s="75"/>
       <c r="AQ230" s="75"/>
     </row>
-    <row r="231" spans="1:49" s="86" customFormat="1" ht="154">
+    <row r="231" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A231" s="86" t="s">
         <v>20</v>
       </c>
@@ -24048,7 +24048,7 @@
       <c r="AP231" s="75"/>
       <c r="AQ231" s="75"/>
     </row>
-    <row r="232" spans="1:49" s="86" customFormat="1" ht="98">
+    <row r="232" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A232" s="86" t="s">
         <v>20</v>
       </c>
@@ -24098,7 +24098,7 @@
       <c r="AP232" s="75"/>
       <c r="AQ232" s="75"/>
     </row>
-    <row r="233" spans="1:49" s="89" customFormat="1">
+    <row r="233" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A233" s="86" t="s">
         <v>16</v>
       </c>
@@ -24157,7 +24157,7 @@
       <c r="AS233" s="86"/>
       <c r="AT233" s="86"/>
     </row>
-    <row r="234" spans="1:49" s="78" customFormat="1" ht="280">
+    <row r="234" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A234" s="77" t="s">
         <v>20</v>
       </c>
@@ -24227,7 +24227,7 @@
       <c r="AV234" s="77"/>
       <c r="AW234" s="77"/>
     </row>
-    <row r="235" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="235" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A235" s="86" t="s">
         <v>1697</v>
       </c>
@@ -24272,7 +24272,7 @@
       <c r="AS235" s="86"/>
       <c r="AT235" s="86"/>
     </row>
-    <row r="236" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="236" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A236" s="86" t="s">
         <v>124</v>
       </c>
@@ -24325,7 +24325,7 @@
       <c r="AS236" s="86"/>
       <c r="AT236" s="86"/>
     </row>
-    <row r="237" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="237" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A237" s="86" t="s">
         <v>14</v>
       </c>
@@ -24362,7 +24362,7 @@
       <c r="AS237" s="86"/>
       <c r="AT237" s="86"/>
     </row>
-    <row r="238" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="238" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A238" s="86" t="s">
         <v>14</v>
       </c>
@@ -24399,7 +24399,7 @@
       <c r="AS238" s="86"/>
       <c r="AT238" s="86"/>
     </row>
-    <row r="239" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="239" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A239" s="86" t="s">
         <v>14</v>
       </c>
@@ -24436,7 +24436,7 @@
       <c r="AS239" s="86"/>
       <c r="AT239" s="86"/>
     </row>
-    <row r="240" spans="1:49" s="89" customFormat="1">
+    <row r="240" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A240" s="86" t="s">
         <v>27</v>
       </c>
@@ -24471,7 +24471,7 @@
       <c r="AS240" s="86"/>
       <c r="AT240" s="86"/>
     </row>
-    <row r="241" spans="1:49" s="94" customFormat="1" ht="70">
+    <row r="241" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A241" s="86" t="s">
         <v>20</v>
       </c>
@@ -24513,7 +24513,7 @@
       <c r="X241" s="75"/>
       <c r="Y241" s="75"/>
     </row>
-    <row r="242" spans="1:49" s="89" customFormat="1" ht="112">
+    <row r="242" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A242" s="86" t="s">
         <v>20</v>
       </c>
@@ -24560,7 +24560,7 @@
       <c r="AS242" s="86"/>
       <c r="AT242" s="86"/>
     </row>
-    <row r="243" spans="1:49" s="89" customFormat="1" ht="112">
+    <row r="243" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A243" s="86" t="s">
         <v>20</v>
       </c>
@@ -24607,7 +24607,7 @@
       <c r="AS243" s="86"/>
       <c r="AT243" s="86"/>
     </row>
-    <row r="244" spans="1:49" s="86" customFormat="1">
+    <row r="244" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A244" s="86" t="s">
         <v>16</v>
       </c>
@@ -24632,7 +24632,7 @@
       <c r="X244" s="75"/>
       <c r="Y244" s="75"/>
     </row>
-    <row r="245" spans="1:49" s="78" customFormat="1" ht="196">
+    <row r="245" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A245" s="77" t="s">
         <v>20</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="AV245" s="77"/>
       <c r="AW245" s="77"/>
     </row>
-    <row r="246" spans="1:49" s="78" customFormat="1" ht="28">
+    <row r="246" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A246" s="77" t="s">
         <v>20</v>
       </c>
@@ -24762,7 +24762,7 @@
       <c r="AV246" s="77"/>
       <c r="AW246" s="77"/>
     </row>
-    <row r="247" spans="1:49" s="78" customFormat="1" ht="28">
+    <row r="247" spans="1:49" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A247" s="77" t="s">
         <v>20</v>
       </c>
@@ -24822,7 +24822,7 @@
       <c r="AV247" s="77"/>
       <c r="AW247" s="77"/>
     </row>
-    <row r="248" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="248" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A248" s="86" t="s">
         <v>1697</v>
       </c>
@@ -24867,7 +24867,7 @@
       <c r="AS248" s="86"/>
       <c r="AT248" s="86"/>
     </row>
-    <row r="249" spans="1:49" s="89" customFormat="1" ht="56">
+    <row r="249" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A249" s="86" t="s">
         <v>124</v>
       </c>
@@ -24920,7 +24920,7 @@
       <c r="AS249" s="86"/>
       <c r="AT249" s="86"/>
     </row>
-    <row r="250" spans="1:49" s="89" customFormat="1" ht="28">
+    <row r="250" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A250" s="86" t="s">
         <v>14</v>
       </c>
@@ -24957,7 +24957,7 @@
       <c r="AS250" s="86"/>
       <c r="AT250" s="86"/>
     </row>
-    <row r="251" spans="1:49" s="89" customFormat="1" ht="84">
+    <row r="251" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A251" s="86" t="s">
         <v>14</v>
       </c>
@@ -24994,7 +24994,7 @@
       <c r="AS251" s="86"/>
       <c r="AT251" s="86"/>
     </row>
-    <row r="252" spans="1:49" s="89" customFormat="1" ht="42">
+    <row r="252" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A252" s="86" t="s">
         <v>14</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="AS252" s="86"/>
       <c r="AT252" s="86"/>
     </row>
-    <row r="253" spans="1:49" s="86" customFormat="1">
+    <row r="253" spans="1:49" s="86" customFormat="1" ht="13" customHeight="1">
       <c r="A253" s="86" t="s">
         <v>27</v>
       </c>
@@ -25048,7 +25048,7 @@
       <c r="X253" s="75"/>
       <c r="Y253" s="75"/>
     </row>
-    <row r="254" spans="1:49" s="94" customFormat="1" ht="84">
+    <row r="254" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A254" s="86" t="s">
         <v>20</v>
       </c>
@@ -25090,7 +25090,7 @@
       <c r="X254" s="75"/>
       <c r="Y254" s="75"/>
     </row>
-    <row r="255" spans="1:49" s="94" customFormat="1" ht="409">
+    <row r="255" spans="1:49" s="94" customFormat="1" ht="13" customHeight="1">
       <c r="A255" s="86" t="s">
         <v>20</v>
       </c>
@@ -25132,7 +25132,7 @@
       <c r="X255" s="75"/>
       <c r="Y255" s="75"/>
     </row>
-    <row r="256" spans="1:49" s="89" customFormat="1" ht="126">
+    <row r="256" spans="1:49" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A256" s="86" t="s">
         <v>20</v>
       </c>
@@ -25179,7 +25179,7 @@
       <c r="AS256" s="86"/>
       <c r="AT256" s="86"/>
     </row>
-    <row r="257" spans="1:70" s="89" customFormat="1" ht="112">
+    <row r="257" spans="1:70" s="89" customFormat="1" ht="13" customHeight="1">
       <c r="A257" s="86" t="s">
         <v>20</v>
       </c>
@@ -25226,7 +25226,7 @@
       <c r="AS257" s="86"/>
       <c r="AT257" s="86"/>
     </row>
-    <row r="258" spans="1:70" s="74" customFormat="1" ht="112">
+    <row r="258" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A258" s="73" t="s">
         <v>28</v>
       </c>
@@ -25318,7 +25318,7 @@
       <c r="BQ258" s="75"/>
       <c r="BR258" s="75"/>
     </row>
-    <row r="259" spans="1:70" s="74" customFormat="1" ht="168">
+    <row r="259" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A259" s="73" t="s">
         <v>20</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="BQ259" s="75"/>
       <c r="BR259" s="75"/>
     </row>
-    <row r="260" spans="1:70" ht="42">
+    <row r="260" spans="1:70" ht="13" customHeight="1">
       <c r="A260" s="73" t="s">
         <v>1612</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="261" spans="1:70" s="78" customFormat="1" ht="210">
+    <row r="261" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A261" s="77" t="s">
         <v>16</v>
       </c>
@@ -25503,7 +25503,7 @@
       <c r="X261" s="77"/>
       <c r="Y261" s="77"/>
     </row>
-    <row r="262" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="262" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A262" s="77" t="s">
         <v>14</v>
       </c>
@@ -25535,7 +25535,7 @@
       <c r="X262" s="77"/>
       <c r="Y262" s="77"/>
     </row>
-    <row r="263" spans="1:70" s="90" customFormat="1" ht="42">
+    <row r="263" spans="1:70" s="90" customFormat="1" ht="13" customHeight="1">
       <c r="A263" s="77" t="s">
         <v>14</v>
       </c>
@@ -25615,7 +25615,7 @@
       <c r="BQ263" s="78"/>
       <c r="BR263" s="78"/>
     </row>
-    <row r="264" spans="1:70" s="90" customFormat="1" ht="28">
+    <row r="264" spans="1:70" s="90" customFormat="1" ht="13" customHeight="1">
       <c r="A264" s="77" t="s">
         <v>14</v>
       </c>
@@ -25695,7 +25695,7 @@
       <c r="BQ264" s="78"/>
       <c r="BR264" s="78"/>
     </row>
-    <row r="265" spans="1:70" s="78" customFormat="1" ht="112">
+    <row r="265" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A265" s="77" t="s">
         <v>264</v>
       </c>
@@ -25743,7 +25743,7 @@
       <c r="X265" s="77"/>
       <c r="Y265" s="77"/>
     </row>
-    <row r="266" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="266" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A266" s="77" t="s">
         <v>106</v>
       </c>
@@ -25783,7 +25783,7 @@
       <c r="X266" s="77"/>
       <c r="Y266" s="77"/>
     </row>
-    <row r="267" spans="1:70" s="78" customFormat="1">
+    <row r="267" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A267" s="77" t="s">
         <v>27</v>
       </c>
@@ -25813,7 +25813,7 @@
       <c r="X267" s="77"/>
       <c r="Y267" s="77"/>
     </row>
-    <row r="268" spans="1:70" ht="112">
+    <row r="268" spans="1:70" ht="13" customHeight="1">
       <c r="A268" s="73" t="s">
         <v>205</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="269" spans="1:70" ht="42">
+    <row r="269" spans="1:70" ht="13" customHeight="1">
       <c r="A269" s="73" t="s">
         <v>205</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="270" spans="1:70" s="96" customFormat="1" ht="70">
+    <row r="270" spans="1:70" s="96" customFormat="1" ht="13" customHeight="1">
       <c r="A270" s="98" t="s">
         <v>164</v>
       </c>
@@ -25993,7 +25993,7 @@
       <c r="BQ270" s="97"/>
       <c r="BR270" s="97"/>
     </row>
-    <row r="271" spans="1:70" ht="98">
+    <row r="271" spans="1:70" ht="13" customHeight="1">
       <c r="A271" s="73" t="s">
         <v>205</v>
       </c>
@@ -26037,7 +26037,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="272" spans="1:70" ht="56">
+    <row r="272" spans="1:70" ht="13" customHeight="1">
       <c r="A272" s="73" t="s">
         <v>205</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="273" spans="1:70" ht="28">
+    <row r="273" spans="1:70" ht="13" customHeight="1">
       <c r="A273" s="73" t="s">
         <v>273</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="274" spans="1:70" ht="42">
+    <row r="274" spans="1:70" ht="13" customHeight="1">
       <c r="A274" s="73" t="s">
         <v>276</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="275" spans="1:70" ht="28">
+    <row r="275" spans="1:70" ht="13" customHeight="1">
       <c r="A275" s="73" t="s">
         <v>276</v>
       </c>
@@ -26215,7 +26215,7 @@
       <c r="X275" s="77"/>
       <c r="Y275" s="77"/>
     </row>
-    <row r="276" spans="1:70" ht="28">
+    <row r="276" spans="1:70" ht="13" customHeight="1">
       <c r="A276" s="73" t="s">
         <v>276</v>
       </c>
@@ -26261,7 +26261,7 @@
       <c r="X276" s="77"/>
       <c r="Y276" s="77"/>
     </row>
-    <row r="277" spans="1:70" ht="140">
+    <row r="277" spans="1:70" ht="13" customHeight="1">
       <c r="A277" s="73" t="s">
         <v>14</v>
       </c>
@@ -26292,7 +26292,7 @@
       <c r="X277" s="77"/>
       <c r="Y277" s="77"/>
     </row>
-    <row r="278" spans="1:70" ht="112">
+    <row r="278" spans="1:70" ht="13" customHeight="1">
       <c r="A278" s="73" t="s">
         <v>164</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="279" spans="1:70" ht="112">
+    <row r="279" spans="1:70" ht="13" customHeight="1">
       <c r="A279" s="73" t="s">
         <v>164</v>
       </c>
@@ -26381,7 +26381,7 @@
       </c>
       <c r="W279"/>
     </row>
-    <row r="280" spans="1:70" s="78" customFormat="1" ht="70">
+    <row r="280" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A280" s="77" t="s">
         <v>1578</v>
       </c>
@@ -26431,7 +26431,7 @@
       <c r="X280" s="77"/>
       <c r="Y280" s="77"/>
     </row>
-    <row r="281" spans="1:70" s="138" customFormat="1" ht="56">
+    <row r="281" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A281" s="136" t="s">
         <v>205</v>
       </c>
@@ -26523,7 +26523,7 @@
       <c r="BQ281" s="137"/>
       <c r="BR281" s="137"/>
     </row>
-    <row r="282" spans="1:70" s="138" customFormat="1" ht="42">
+    <row r="282" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A282" s="77" t="s">
         <v>1578</v>
       </c>
@@ -26615,7 +26615,7 @@
       <c r="BQ282" s="137"/>
       <c r="BR282" s="137"/>
     </row>
-    <row r="283" spans="1:70" s="138" customFormat="1" ht="84">
+    <row r="283" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A283" s="136" t="s">
         <v>1581</v>
       </c>
@@ -26713,7 +26713,7 @@
       <c r="BQ283" s="137"/>
       <c r="BR283" s="137"/>
     </row>
-    <row r="284" spans="1:70" s="138" customFormat="1" ht="42">
+    <row r="284" spans="1:70" s="138" customFormat="1" ht="13" customHeight="1">
       <c r="A284" s="136" t="s">
         <v>37</v>
       </c>
@@ -26807,7 +26807,7 @@
       <c r="BQ284" s="137"/>
       <c r="BR284" s="137"/>
     </row>
-    <row r="285" spans="1:70" s="78" customFormat="1" ht="98">
+    <row r="285" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A285" s="73" t="s">
         <v>205</v>
       </c>
@@ -26853,7 +26853,7 @@
       <c r="X285" s="77"/>
       <c r="Y285" s="77"/>
     </row>
-    <row r="286" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="286" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A286" s="77" t="s">
         <v>246</v>
       </c>
@@ -26899,7 +26899,7 @@
       <c r="X286" s="77"/>
       <c r="Y286" s="77"/>
     </row>
-    <row r="287" spans="1:70" s="77" customFormat="1" ht="98">
+    <row r="287" spans="1:70" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A287" s="77" t="s">
         <v>205</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="288" spans="1:70" s="77" customFormat="1" ht="126">
+    <row r="288" spans="1:70" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A288" s="77" t="s">
         <v>1479</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="289" spans="1:70" s="99" customFormat="1" ht="126">
+    <row r="289" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A289" s="77" t="s">
         <v>14</v>
       </c>
@@ -27053,7 +27053,7 @@
       <c r="BQ289" s="77"/>
       <c r="BR289" s="77"/>
     </row>
-    <row r="290" spans="1:70" s="99" customFormat="1" ht="112">
+    <row r="290" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A290" s="77" t="s">
         <v>46</v>
       </c>
@@ -27155,7 +27155,7 @@
       <c r="BQ290" s="77"/>
       <c r="BR290" s="77"/>
     </row>
-    <row r="291" spans="1:70" s="99" customFormat="1" ht="308">
+    <row r="291" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A291" s="77" t="s">
         <v>20</v>
       </c>
@@ -27245,7 +27245,7 @@
       <c r="BQ291" s="77"/>
       <c r="BR291" s="77"/>
     </row>
-    <row r="292" spans="1:70" s="77" customFormat="1" ht="112">
+    <row r="292" spans="1:70" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A292" s="77" t="s">
         <v>296</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="293" spans="1:70" s="77" customFormat="1" ht="70">
+    <row r="293" spans="1:70" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A293" s="104" t="s">
         <v>20</v>
       </c>
@@ -27336,7 +27336,7 @@
       <c r="AN293" s="104"/>
       <c r="AO293" s="104"/>
     </row>
-    <row r="294" spans="1:70" s="77" customFormat="1" ht="42">
+    <row r="294" spans="1:70" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A294" s="77" t="s">
         <v>1053</v>
       </c>
@@ -27380,7 +27380,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="295" spans="1:70" s="78" customFormat="1">
+    <row r="295" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A295" s="77"/>
       <c r="B295" s="77"/>
       <c r="C295" s="77"/>
@@ -27404,7 +27404,7 @@
       <c r="X295" s="77"/>
       <c r="Y295" s="77"/>
     </row>
-    <row r="296" spans="1:70" ht="56">
+    <row r="296" spans="1:70" ht="13" customHeight="1">
       <c r="A296" s="73" t="s">
         <v>205</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="297" spans="1:70" s="78" customFormat="1" ht="70">
+    <row r="297" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A297" s="77" t="s">
         <v>14</v>
       </c>
@@ -27480,7 +27480,7 @@
       <c r="X297" s="77"/>
       <c r="Y297" s="77"/>
     </row>
-    <row r="298" spans="1:70" s="78" customFormat="1" ht="252">
+    <row r="298" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A298" s="77" t="s">
         <v>14</v>
       </c>
@@ -27512,7 +27512,7 @@
       <c r="X298" s="77"/>
       <c r="Y298" s="77"/>
     </row>
-    <row r="299" spans="1:70" ht="182">
+    <row r="299" spans="1:70" ht="13" customHeight="1">
       <c r="A299" s="73" t="s">
         <v>46</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="300" spans="1:70" ht="70">
+    <row r="300" spans="1:70" ht="13" customHeight="1">
       <c r="A300" s="73" t="s">
         <v>28</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="301" spans="1:70" ht="98">
+    <row r="301" spans="1:70" ht="13" customHeight="1">
       <c r="A301" s="73" t="s">
         <v>46</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="302" spans="1:70" ht="140">
+    <row r="302" spans="1:70" ht="13" customHeight="1">
       <c r="A302" s="73" t="s">
         <v>28</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="303" spans="1:70" s="78" customFormat="1">
+    <row r="303" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A303" s="77" t="s">
         <v>16</v>
       </c>
@@ -27765,7 +27765,7 @@
       <c r="X303" s="77"/>
       <c r="Y303" s="77"/>
     </row>
-    <row r="304" spans="1:70" s="78" customFormat="1" ht="98">
+    <row r="304" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A304" s="77" t="s">
         <v>296</v>
       </c>
@@ -27819,7 +27819,7 @@
       </c>
       <c r="Y304" s="77"/>
     </row>
-    <row r="305" spans="1:70" s="78" customFormat="1" ht="28">
+    <row r="305" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A305" s="77" t="s">
         <v>106</v>
       </c>
@@ -27859,7 +27859,7 @@
       <c r="X305" s="77"/>
       <c r="Y305" s="77"/>
     </row>
-    <row r="306" spans="1:70" s="78" customFormat="1">
+    <row r="306" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A306" s="77" t="s">
         <v>27</v>
       </c>
@@ -27889,7 +27889,7 @@
       <c r="X306" s="77"/>
       <c r="Y306" s="77"/>
     </row>
-    <row r="307" spans="1:70" s="78" customFormat="1" ht="98">
+    <row r="307" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A307" s="77" t="s">
         <v>20</v>
       </c>
@@ -27929,7 +27929,7 @@
       <c r="X307" s="73"/>
       <c r="Y307" s="77"/>
     </row>
-    <row r="308" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="308" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A308" s="77" t="s">
         <v>1053</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="309" spans="1:70" s="78" customFormat="1" ht="154">
+    <row r="309" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A309" s="77" t="s">
         <v>205</v>
       </c>
@@ -28029,7 +28029,7 @@
       <c r="X309" s="77"/>
       <c r="Y309" s="77"/>
     </row>
-    <row r="310" spans="1:70" ht="409">
+    <row r="310" spans="1:70" ht="13" customHeight="1">
       <c r="A310" s="73" t="s">
         <v>16</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="311" spans="1:70" s="74" customFormat="1" ht="98">
+    <row r="311" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A311" s="73" t="s">
         <v>20</v>
       </c>
@@ -28153,7 +28153,7 @@
       <c r="BQ311" s="75"/>
       <c r="BR311" s="75"/>
     </row>
-    <row r="312" spans="1:70" s="74" customFormat="1" ht="98">
+    <row r="312" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A312" s="73" t="s">
         <v>20</v>
       </c>
@@ -28243,7 +28243,7 @@
       <c r="BQ312" s="75"/>
       <c r="BR312" s="75"/>
     </row>
-    <row r="313" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="313" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A313" s="73" t="s">
         <v>20</v>
       </c>
@@ -28333,7 +28333,7 @@
       <c r="BQ313" s="75"/>
       <c r="BR313" s="75"/>
     </row>
-    <row r="314" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="314" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A314" s="73" t="s">
         <v>20</v>
       </c>
@@ -28423,7 +28423,7 @@
       <c r="BQ314" s="75"/>
       <c r="BR314" s="75"/>
     </row>
-    <row r="315" spans="1:70" ht="210">
+    <row r="315" spans="1:70" ht="13" customHeight="1">
       <c r="A315" s="73" t="s">
         <v>303</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="316" spans="1:70" ht="28">
+    <row r="316" spans="1:70" ht="13" customHeight="1">
       <c r="A316" s="73" t="s">
         <v>106</v>
       </c>
@@ -28511,7 +28511,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="317" spans="1:70" ht="28">
+    <row r="317" spans="1:70" ht="13" customHeight="1">
       <c r="A317" s="73" t="s">
         <v>27</v>
       </c>
@@ -28538,7 +28538,7 @@
       <c r="S317" s="75"/>
       <c r="U317" s="75"/>
     </row>
-    <row r="318" spans="1:70" ht="70">
+    <row r="318" spans="1:70" ht="13" customHeight="1">
       <c r="A318" s="73" t="s">
         <v>843</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" spans="1:70" s="78" customFormat="1" ht="70">
+    <row r="319" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A319" s="77" t="s">
         <v>205</v>
       </c>
@@ -28627,7 +28627,7 @@
       <c r="X319" s="77"/>
       <c r="Y319" s="77"/>
     </row>
-    <row r="320" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="320" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A320" s="73" t="s">
         <v>205</v>
       </c>
@@ -28723,7 +28723,7 @@
       <c r="BQ320" s="75"/>
       <c r="BR320" s="75"/>
     </row>
-    <row r="321" spans="1:70" s="74" customFormat="1" ht="56">
+    <row r="321" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A321" s="73" t="s">
         <v>205</v>
       </c>
@@ -28819,7 +28819,7 @@
       <c r="BQ321" s="75"/>
       <c r="BR321" s="75"/>
     </row>
-    <row r="322" spans="1:70" ht="56">
+    <row r="322" spans="1:70" ht="13" customHeight="1">
       <c r="A322" s="73" t="s">
         <v>205</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" spans="1:70">
+    <row r="323" spans="1:70" ht="13" customHeight="1">
       <c r="A323" s="73" t="s">
         <v>16</v>
       </c>
@@ -28895,7 +28895,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="324" spans="1:70" ht="28">
+    <row r="324" spans="1:70" ht="13" customHeight="1">
       <c r="A324" s="73" t="s">
         <v>20</v>
       </c>
@@ -28929,7 +28929,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="325" spans="1:70" ht="28">
+    <row r="325" spans="1:70" ht="13" customHeight="1">
       <c r="A325" s="73" t="s">
         <v>205</v>
       </c>
@@ -28955,7 +28955,7 @@
       <c r="S325" s="75"/>
       <c r="U325" s="75"/>
     </row>
-    <row r="326" spans="1:70" ht="28">
+    <row r="326" spans="1:70" ht="13" customHeight="1">
       <c r="A326" s="73" t="s">
         <v>205</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="327" spans="1:70" ht="42">
+    <row r="327" spans="1:70" ht="13" customHeight="1">
       <c r="A327" s="73" t="s">
         <v>205</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="328" spans="1:70" ht="42">
+    <row r="328" spans="1:70" ht="13" customHeight="1">
       <c r="A328" s="73" t="s">
         <v>205</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="329" spans="1:70" s="78" customFormat="1" ht="42">
+    <row r="329" spans="1:70" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A329" s="77" t="s">
         <v>205</v>
       </c>
@@ -29126,7 +29126,7 @@
       <c r="X329" s="77"/>
       <c r="Y329" s="77"/>
     </row>
-    <row r="330" spans="1:70">
+    <row r="330" spans="1:70" ht="13" customHeight="1">
       <c r="A330" s="73" t="s">
         <v>27</v>
       </c>
@@ -29153,7 +29153,7 @@
       <c r="S330" s="75"/>
       <c r="U330" s="75"/>
     </row>
-    <row r="331" spans="1:70" s="85" customFormat="1" ht="154">
+    <row r="331" spans="1:70" s="85" customFormat="1" ht="13" customHeight="1">
       <c r="A331" s="84" t="s">
         <v>20</v>
       </c>
@@ -29201,7 +29201,7 @@
       <c r="X331" s="84"/>
       <c r="Y331" s="84"/>
     </row>
-    <row r="332" spans="1:70" s="85" customFormat="1" ht="182">
+    <row r="332" spans="1:70" s="85" customFormat="1" ht="13" customHeight="1">
       <c r="A332" s="84" t="s">
         <v>20</v>
       </c>
@@ -29245,7 +29245,7 @@
       <c r="X332" s="84"/>
       <c r="Y332" s="84"/>
     </row>
-    <row r="333" spans="1:70" ht="140">
+    <row r="333" spans="1:70" ht="13" customHeight="1">
       <c r="A333" s="73" t="s">
         <v>14</v>
       </c>
@@ -29274,7 +29274,7 @@
       <c r="S333" s="75"/>
       <c r="U333" s="75"/>
     </row>
-    <row r="334" spans="1:70" s="74" customFormat="1">
+    <row r="334" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A334" s="73" t="s">
         <v>16</v>
       </c>
@@ -29358,7 +29358,7 @@
       <c r="BQ334" s="75"/>
       <c r="BR334" s="75"/>
     </row>
-    <row r="335" spans="1:70" s="74" customFormat="1" ht="42">
+    <row r="335" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A335" s="73" t="s">
         <v>20</v>
       </c>
@@ -29446,7 +29446,7 @@
       <c r="BQ335" s="75"/>
       <c r="BR335" s="75"/>
     </row>
-    <row r="336" spans="1:70" s="74" customFormat="1">
+    <row r="336" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A336" s="73" t="s">
         <v>20</v>
       </c>
@@ -29530,7 +29530,7 @@
       <c r="BQ336" s="75"/>
       <c r="BR336" s="75"/>
     </row>
-    <row r="337" spans="1:70" s="74" customFormat="1" ht="28">
+    <row r="337" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A337" s="73" t="s">
         <v>20</v>
       </c>
@@ -29620,7 +29620,7 @@
       <c r="BQ337" s="75"/>
       <c r="BR337" s="75"/>
     </row>
-    <row r="338" spans="1:70" s="74" customFormat="1" ht="28">
+    <row r="338" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A338" s="73" t="s">
         <v>20</v>
       </c>
@@ -29710,7 +29710,7 @@
       <c r="BQ338" s="75"/>
       <c r="BR338" s="75"/>
     </row>
-    <row r="339" spans="1:70" s="74" customFormat="1" ht="140">
+    <row r="339" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A339" s="73" t="s">
         <v>46</v>
       </c>
@@ -29806,7 +29806,7 @@
       <c r="BQ339" s="75"/>
       <c r="BR339" s="75"/>
     </row>
-    <row r="340" spans="1:70" s="74" customFormat="1">
+    <row r="340" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A340" s="73" t="s">
         <v>27</v>
       </c>
@@ -29884,7 +29884,7 @@
       <c r="BQ340" s="75"/>
       <c r="BR340" s="75"/>
     </row>
-    <row r="341" spans="1:70" ht="98">
+    <row r="341" spans="1:70" ht="13" customHeight="1">
       <c r="A341" s="73" t="s">
         <v>20</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="342" spans="1:70" ht="56">
+    <row r="342" spans="1:70" ht="13" customHeight="1">
       <c r="A342" s="73" t="s">
         <v>14</v>
       </c>
@@ -29963,7 +29963,7 @@
       <c r="S342" s="75"/>
       <c r="U342" s="75"/>
     </row>
-    <row r="343" spans="1:70" ht="98">
+    <row r="343" spans="1:70" ht="13" customHeight="1">
       <c r="A343" s="73" t="s">
         <v>28</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="344" spans="1:70" ht="70">
+    <row r="344" spans="1:70" ht="13" customHeight="1">
       <c r="A344" s="73" t="s">
         <v>28</v>
       </c>
@@ -30075,7 +30075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="345" spans="1:70" ht="84">
+    <row r="345" spans="1:70" ht="13" customHeight="1">
       <c r="A345" s="73" t="s">
         <v>28</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="1:70" ht="28">
+    <row r="346" spans="1:70" ht="13" customHeight="1">
       <c r="A346" s="73" t="s">
         <v>14</v>
       </c>
@@ -30161,7 +30161,7 @@
       <c r="S346" s="75"/>
       <c r="U346" s="75"/>
     </row>
-    <row r="347" spans="1:70" s="74" customFormat="1" ht="84">
+    <row r="347" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A347" s="75" t="s">
         <v>16</v>
       </c>
@@ -30245,7 +30245,7 @@
       <c r="BQ347" s="75"/>
       <c r="BR347" s="75"/>
     </row>
-    <row r="348" spans="1:70" ht="28">
+    <row r="348" spans="1:70" ht="13" customHeight="1">
       <c r="A348" s="75" t="s">
         <v>20</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="349" spans="1:70" s="74" customFormat="1" ht="42">
+    <row r="349" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A349" s="75" t="s">
         <v>20</v>
       </c>
@@ -30360,7 +30360,7 @@
       <c r="BQ349" s="75"/>
       <c r="BR349" s="75"/>
     </row>
-    <row r="350" spans="1:70" s="74" customFormat="1" ht="42">
+    <row r="350" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A350" s="75" t="s">
         <v>20</v>
       </c>
@@ -30448,7 +30448,7 @@
       <c r="BQ350" s="75"/>
       <c r="BR350" s="75"/>
     </row>
-    <row r="351" spans="1:70" s="74" customFormat="1" ht="238">
+    <row r="351" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A351" s="75" t="s">
         <v>1479</v>
       </c>
@@ -30546,7 +30546,7 @@
       <c r="BQ351" s="75"/>
       <c r="BR351" s="75"/>
     </row>
-    <row r="352" spans="1:70" s="74" customFormat="1">
+    <row r="352" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A352" s="75" t="s">
         <v>27</v>
       </c>
@@ -30624,7 +30624,7 @@
       <c r="BQ352" s="75"/>
       <c r="BR352" s="75"/>
     </row>
-    <row r="353" spans="1:70" s="99" customFormat="1" ht="112">
+    <row r="353" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A353" s="75" t="s">
         <v>14</v>
       </c>
@@ -30704,7 +30704,7 @@
       <c r="BQ353" s="77"/>
       <c r="BR353" s="77"/>
     </row>
-    <row r="354" spans="1:70" s="90" customFormat="1" ht="210">
+    <row r="354" spans="1:70" s="90" customFormat="1" ht="13" customHeight="1">
       <c r="A354" s="75" t="s">
         <v>46</v>
       </c>
@@ -30806,7 +30806,7 @@
       <c r="BQ354" s="78"/>
       <c r="BR354" s="78"/>
     </row>
-    <row r="355" spans="1:70" s="74" customFormat="1" ht="409">
+    <row r="355" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A355" s="75" t="s">
         <v>20</v>
       </c>
@@ -30864,7 +30864,7 @@
       <c r="AK355" s="75"/>
       <c r="AL355" s="75"/>
     </row>
-    <row r="356" spans="1:70" s="74" customFormat="1" ht="350">
+    <row r="356" spans="1:70" s="74" customFormat="1" ht="13" customHeight="1">
       <c r="A356" s="75" t="s">
         <v>20</v>
       </c>
@@ -30922,7 +30922,7 @@
       <c r="AK356" s="75"/>
       <c r="AL356" s="75"/>
     </row>
-    <row r="357" spans="1:70" s="108" customFormat="1" ht="168">
+    <row r="357" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A357" s="83" t="s">
         <v>1156</v>
       </c>
@@ -30986,7 +30986,7 @@
       <c r="AK357" s="82"/>
       <c r="AL357" s="82"/>
     </row>
-    <row r="358" spans="1:70" s="108" customFormat="1" ht="112">
+    <row r="358" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A358" s="83" t="s">
         <v>14</v>
       </c>
@@ -31034,7 +31034,7 @@
       <c r="AK358" s="82"/>
       <c r="AL358" s="82"/>
     </row>
-    <row r="359" spans="1:70" s="108" customFormat="1" ht="28">
+    <row r="359" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A359" s="83" t="s">
         <v>46</v>
       </c>
@@ -31096,7 +31096,7 @@
       <c r="AK359" s="82"/>
       <c r="AL359" s="82"/>
     </row>
-    <row r="360" spans="1:70" s="108" customFormat="1" ht="168">
+    <row r="360" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A360" s="83" t="s">
         <v>1156</v>
       </c>
@@ -31160,7 +31160,7 @@
       <c r="AK360" s="82"/>
       <c r="AL360" s="82"/>
     </row>
-    <row r="361" spans="1:70" s="108" customFormat="1" ht="112">
+    <row r="361" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A361" s="83" t="s">
         <v>14</v>
       </c>
@@ -31208,7 +31208,7 @@
       <c r="AK361" s="82"/>
       <c r="AL361" s="82"/>
     </row>
-    <row r="362" spans="1:70" s="108" customFormat="1" ht="28">
+    <row r="362" spans="1:70" s="108" customFormat="1" ht="13" customHeight="1">
       <c r="A362" s="83" t="s">
         <v>46</v>
       </c>
@@ -31270,7 +31270,7 @@
       <c r="AK362" s="82"/>
       <c r="AL362" s="82"/>
     </row>
-    <row r="363" spans="1:70" s="99" customFormat="1" ht="196">
+    <row r="363" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A363" s="77" t="s">
         <v>16</v>
       </c>
@@ -31320,7 +31320,7 @@
       <c r="AK363" s="77"/>
       <c r="AL363" s="77"/>
     </row>
-    <row r="364" spans="1:70" s="112" customFormat="1" ht="308">
+    <row r="364" spans="1:70" s="112" customFormat="1" ht="13" customHeight="1">
       <c r="A364" s="76" t="s">
         <v>20</v>
       </c>
@@ -31382,7 +31382,7 @@
       <c r="AK364" s="76"/>
       <c r="AL364" s="76"/>
     </row>
-    <row r="365" spans="1:70" s="99" customFormat="1" ht="56">
+    <row r="365" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A365" s="77" t="s">
         <v>1094</v>
       </c>
@@ -31442,7 +31442,7 @@
       <c r="AK365" s="77"/>
       <c r="AL365" s="77"/>
     </row>
-    <row r="366" spans="1:70" s="99" customFormat="1" ht="126">
+    <row r="366" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A366" s="77" t="s">
         <v>14</v>
       </c>
@@ -31490,7 +31490,7 @@
       <c r="AK366" s="77"/>
       <c r="AL366" s="77"/>
     </row>
-    <row r="367" spans="1:70" s="99" customFormat="1" ht="84">
+    <row r="367" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A367" s="77" t="s">
         <v>1097</v>
       </c>
@@ -31560,7 +31560,7 @@
       <c r="AK367" s="77"/>
       <c r="AL367" s="77"/>
     </row>
-    <row r="368" spans="1:70" s="99" customFormat="1" ht="84">
+    <row r="368" spans="1:70" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A368" s="77" t="s">
         <v>1102</v>
       </c>
@@ -31628,7 +31628,7 @@
       <c r="AK368" s="77"/>
       <c r="AL368" s="77"/>
     </row>
-    <row r="369" spans="1:38" s="99" customFormat="1" ht="112">
+    <row r="369" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A369" s="77" t="s">
         <v>205</v>
       </c>
@@ -31688,7 +31688,7 @@
       <c r="AK369" s="77"/>
       <c r="AL369" s="77"/>
     </row>
-    <row r="370" spans="1:38" s="99" customFormat="1" ht="84">
+    <row r="370" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A370" s="77" t="s">
         <v>205</v>
       </c>
@@ -31748,7 +31748,7 @@
       <c r="AK370" s="77"/>
       <c r="AL370" s="77"/>
     </row>
-    <row r="371" spans="1:38" s="77" customFormat="1" ht="409">
+    <row r="371" spans="1:38" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A371" s="77" t="s">
         <v>14</v>
       </c>
@@ -31768,7 +31768,7 @@
       <c r="X371" s="73"/>
       <c r="Y371" s="73"/>
     </row>
-    <row r="372" spans="1:38" s="77" customFormat="1" ht="224">
+    <row r="372" spans="1:38" s="77" customFormat="1" ht="13" customHeight="1">
       <c r="A372" s="77" t="s">
         <v>1108</v>
       </c>
@@ -31811,7 +31811,7 @@
       <c r="X372" s="73"/>
       <c r="Y372" s="73"/>
     </row>
-    <row r="373" spans="1:38" ht="42">
+    <row r="373" spans="1:38" ht="13" customHeight="1">
       <c r="A373" s="75" t="s">
         <v>205</v>
       </c>
@@ -31841,7 +31841,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="374" spans="1:38" s="99" customFormat="1" ht="70">
+    <row r="374" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A374" s="75" t="s">
         <v>205</v>
       </c>
@@ -31901,7 +31901,7 @@
       <c r="AK374" s="77"/>
       <c r="AL374" s="77"/>
     </row>
-    <row r="375" spans="1:38" s="99" customFormat="1" ht="42">
+    <row r="375" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A375" s="75" t="s">
         <v>205</v>
       </c>
@@ -31961,7 +31961,7 @@
       <c r="AK375" s="77"/>
       <c r="AL375" s="77"/>
     </row>
-    <row r="376" spans="1:38" s="99" customFormat="1" ht="70">
+    <row r="376" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A376" s="75" t="s">
         <v>205</v>
       </c>
@@ -32021,7 +32021,7 @@
       <c r="AK376" s="77"/>
       <c r="AL376" s="77"/>
     </row>
-    <row r="377" spans="1:38" s="99" customFormat="1">
+    <row r="377" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A377" s="77" t="s">
         <v>27</v>
       </c>
@@ -32067,7 +32067,7 @@
       <c r="AK377" s="77"/>
       <c r="AL377" s="77"/>
     </row>
-    <row r="378" spans="1:38" s="99" customFormat="1" ht="112">
+    <row r="378" spans="1:38" s="99" customFormat="1" ht="13" customHeight="1">
       <c r="A378" s="77" t="s">
         <v>46</v>
       </c>
@@ -32133,7 +32133,7 @@
       <c r="AK378" s="77"/>
       <c r="AL378" s="77"/>
     </row>
-    <row r="379" spans="1:38" s="119" customFormat="1">
+    <row r="379" spans="1:38" s="119" customFormat="1" ht="13" customHeight="1">
       <c r="A379" s="117" t="s">
         <v>20</v>
       </c>
@@ -32171,7 +32171,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="380" spans="1:38" ht="126">
+    <row r="380" spans="1:38" ht="13" customHeight="1">
       <c r="A380" s="75" t="s">
         <v>205</v>
       </c>
@@ -32207,7 +32207,7 @@
       <c r="X380" s="75"/>
       <c r="Y380" s="75"/>
     </row>
-    <row r="381" spans="1:38" ht="28">
+    <row r="381" spans="1:38" ht="13" customHeight="1">
       <c r="A381" s="75" t="s">
         <v>205</v>
       </c>
@@ -32243,7 +32243,7 @@
       <c r="X381" s="75"/>
       <c r="Y381" s="75"/>
     </row>
-    <row r="382" spans="1:38" ht="168">
+    <row r="382" spans="1:38" ht="13" customHeight="1">
       <c r="A382" s="75" t="s">
         <v>37</v>
       </c>
@@ -32290,7 +32290,7 @@
       <c r="X382" s="75"/>
       <c r="Y382" s="75"/>
     </row>
-    <row r="383" spans="1:38" ht="56">
+    <row r="383" spans="1:38" ht="13" customHeight="1">
       <c r="A383" s="75" t="s">
         <v>28</v>
       </c>
@@ -32339,7 +32339,7 @@
       </c>
       <c r="Y383" s="75"/>
     </row>
-    <row r="384" spans="1:38" ht="154">
+    <row r="384" spans="1:38" ht="13" customHeight="1">
       <c r="A384" s="73" t="s">
         <v>20</v>
       </c>
@@ -32386,7 +32386,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="98">
+    <row r="385" spans="1:25" ht="13" customHeight="1">
       <c r="A385" s="73" t="s">
         <v>20</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="386" spans="1:25" s="120" customFormat="1" ht="28">
+    <row r="386" spans="1:25" s="120" customFormat="1" ht="13" customHeight="1">
       <c r="A386" s="120" t="s">
         <v>20</v>
       </c>
@@ -32458,7 +32458,7 @@
       <c r="W386" s="121"/>
       <c r="X386" s="121"/>
     </row>
-    <row r="387" spans="1:25" ht="168">
+    <row r="387" spans="1:25" ht="13" customHeight="1">
       <c r="A387" s="73" t="s">
         <v>347</v>
       </c>
@@ -32502,7 +32502,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="56">
+    <row r="388" spans="1:25" ht="13" customHeight="1">
       <c r="A388" s="73" t="s">
         <v>350</v>
       </c>
@@ -32546,7 +32546,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="389" spans="1:25" s="78" customFormat="1" ht="28">
+    <row r="389" spans="1:25" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A389" s="77" t="s">
         <v>982</v>
       </c>
@@ -32592,7 +32592,7 @@
       <c r="X389" s="77"/>
       <c r="Y389" s="77"/>
     </row>
-    <row r="390" spans="1:25" s="82" customFormat="1">
+    <row r="390" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A390" s="83" t="s">
         <v>16</v>
       </c>
@@ -32628,7 +32628,7 @@
       <c r="X390" s="83"/>
       <c r="Y390" s="83"/>
     </row>
-    <row r="391" spans="1:25" s="82" customFormat="1" ht="56">
+    <row r="391" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A391" s="83" t="s">
         <v>20</v>
       </c>
@@ -32670,7 +32670,7 @@
       <c r="X391" s="83"/>
       <c r="Y391" s="83"/>
     </row>
-    <row r="392" spans="1:25" s="82" customFormat="1" ht="28">
+    <row r="392" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A392" s="83" t="s">
         <v>1220</v>
       </c>
@@ -32708,7 +32708,7 @@
       <c r="X392" s="83"/>
       <c r="Y392" s="83"/>
     </row>
-    <row r="393" spans="1:25" s="82" customFormat="1" ht="28">
+    <row r="393" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A393" s="83" t="s">
         <v>1220</v>
       </c>
@@ -32746,7 +32746,7 @@
       <c r="X393" s="83"/>
       <c r="Y393" s="83"/>
     </row>
-    <row r="394" spans="1:25" s="82" customFormat="1" ht="28">
+    <row r="394" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A394" s="83" t="s">
         <v>1220</v>
       </c>
@@ -32784,7 +32784,7 @@
       <c r="X394" s="83"/>
       <c r="Y394" s="83"/>
     </row>
-    <row r="395" spans="1:25" s="82" customFormat="1" ht="28">
+    <row r="395" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A395" s="83" t="s">
         <v>1220</v>
       </c>
@@ -32822,7 +32822,7 @@
       <c r="X395" s="83"/>
       <c r="Y395" s="83"/>
     </row>
-    <row r="396" spans="1:25" s="82" customFormat="1">
+    <row r="396" spans="1:25" s="82" customFormat="1" ht="13" customHeight="1">
       <c r="A396" s="83" t="s">
         <v>27</v>
       </c>
@@ -32852,7 +32852,7 @@
       <c r="X396" s="83"/>
       <c r="Y396" s="83"/>
     </row>
-    <row r="397" spans="1:25" ht="84">
+    <row r="397" spans="1:25" ht="13" customHeight="1">
       <c r="A397" s="73" t="s">
         <v>352</v>
       </c>
@@ -32907,7 +32907,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="398" spans="1:25">
+    <row r="398" spans="1:25" ht="13" customHeight="1">
       <c r="A398" s="73" t="s">
         <v>357</v>
       </c>
@@ -32932,7 +32932,7 @@
       <c r="S398" s="75"/>
       <c r="U398" s="75"/>
     </row>
-    <row r="399" spans="1:25">
+    <row r="399" spans="1:25" ht="13" customHeight="1">
       <c r="A399" s="73" t="s">
         <v>358</v>
       </c>
@@ -32957,7 +32957,7 @@
       <c r="S399" s="75"/>
       <c r="U399" s="75"/>
     </row>
-    <row r="400" spans="1:25">
+    <row r="400" spans="1:25" ht="13" customHeight="1">
       <c r="A400" s="73" t="s">
         <v>359</v>
       </c>
@@ -32982,7 +32982,7 @@
       <c r="S400" s="75"/>
       <c r="U400" s="75"/>
     </row>
-    <row r="401" spans="1:25">
+    <row r="401" spans="1:25" ht="13" customHeight="1">
       <c r="A401" s="73" t="s">
         <v>360</v>
       </c>
@@ -33007,7 +33007,7 @@
       <c r="S401" s="75"/>
       <c r="U401" s="75"/>
     </row>
-    <row r="402" spans="1:25">
+    <row r="402" spans="1:25" ht="13" customHeight="1">
       <c r="A402" s="73" t="s">
         <v>361</v>
       </c>
@@ -33032,7 +33032,7 @@
       <c r="S402" s="75"/>
       <c r="U402" s="75"/>
     </row>
-    <row r="403" spans="1:25" s="115" customFormat="1">
+    <row r="403" spans="1:25" s="115" customFormat="1" ht="13" customHeight="1">
       <c r="A403" s="114" t="s">
         <v>988</v>
       </c>
@@ -33060,7 +33060,7 @@
       <c r="X403" s="114"/>
       <c r="Y403" s="114"/>
     </row>
-    <row r="404" spans="1:25" s="115" customFormat="1">
+    <row r="404" spans="1:25" s="115" customFormat="1" ht="13" customHeight="1">
       <c r="A404" s="114" t="s">
         <v>990</v>
       </c>
@@ -33088,7 +33088,7 @@
       <c r="X404" s="114"/>
       <c r="Y404" s="114"/>
     </row>
-    <row r="405" spans="1:25" s="115" customFormat="1" ht="28">
+    <row r="405" spans="1:25" s="115" customFormat="1" ht="13" customHeight="1">
       <c r="A405" s="114" t="s">
         <v>988</v>
       </c>
@@ -33120,7 +33120,7 @@
       <c r="X405" s="114"/>
       <c r="Y405" s="114"/>
     </row>
-    <row r="406" spans="1:25" s="115" customFormat="1">
+    <row r="406" spans="1:25" s="115" customFormat="1" ht="13" customHeight="1">
       <c r="A406" s="114"/>
       <c r="B406" s="114"/>
       <c r="C406" s="114"/>
@@ -33144,842 +33144,842 @@
       <c r="X406" s="114"/>
       <c r="Y406" s="114"/>
     </row>
-    <row r="407" spans="1:25">
+    <row r="407" spans="1:25" ht="13" customHeight="1">
       <c r="P407" s="75"/>
       <c r="S407" s="75"/>
       <c r="U407" s="75"/>
     </row>
-    <row r="408" spans="1:25">
+    <row r="408" spans="1:25" ht="13" customHeight="1">
       <c r="P408" s="75"/>
       <c r="S408" s="75"/>
       <c r="U408" s="75"/>
     </row>
-    <row r="409" spans="1:25">
+    <row r="409" spans="1:25" ht="13" customHeight="1">
       <c r="P409" s="75"/>
       <c r="S409" s="75"/>
       <c r="U409" s="75"/>
     </row>
-    <row r="410" spans="1:25">
+    <row r="410" spans="1:25" ht="13" customHeight="1">
       <c r="P410" s="75"/>
       <c r="S410" s="75"/>
       <c r="U410" s="75"/>
     </row>
-    <row r="411" spans="1:25">
+    <row r="411" spans="1:25" ht="13" customHeight="1">
       <c r="P411" s="75"/>
       <c r="S411" s="75"/>
       <c r="U411" s="75"/>
     </row>
-    <row r="412" spans="1:25">
+    <row r="412" spans="1:25" ht="13" customHeight="1">
       <c r="P412" s="75"/>
       <c r="S412" s="75"/>
       <c r="U412" s="75"/>
     </row>
-    <row r="413" spans="1:25">
+    <row r="413" spans="1:25" ht="13" customHeight="1">
       <c r="P413" s="75"/>
       <c r="S413" s="75"/>
       <c r="U413" s="75"/>
     </row>
-    <row r="414" spans="1:25">
+    <row r="414" spans="1:25" ht="13" customHeight="1">
       <c r="P414" s="75"/>
       <c r="S414" s="75"/>
       <c r="U414" s="75"/>
     </row>
-    <row r="415" spans="1:25">
+    <row r="415" spans="1:25" ht="13" customHeight="1">
       <c r="P415" s="75"/>
       <c r="S415" s="75"/>
       <c r="U415" s="75"/>
     </row>
-    <row r="416" spans="1:25">
+    <row r="416" spans="1:25" ht="13" customHeight="1">
       <c r="P416" s="75"/>
       <c r="S416" s="75"/>
       <c r="U416" s="75"/>
     </row>
-    <row r="417" spans="16:21">
+    <row r="417" spans="16:21" ht="13" customHeight="1">
       <c r="P417" s="75"/>
       <c r="S417" s="75"/>
       <c r="U417" s="75"/>
     </row>
-    <row r="418" spans="16:21">
+    <row r="418" spans="16:21" ht="13" customHeight="1">
       <c r="P418" s="75"/>
       <c r="S418" s="75"/>
       <c r="U418" s="75"/>
     </row>
-    <row r="419" spans="16:21">
+    <row r="419" spans="16:21" ht="13" customHeight="1">
       <c r="P419" s="75"/>
       <c r="S419" s="75"/>
       <c r="U419" s="75"/>
     </row>
-    <row r="420" spans="16:21">
+    <row r="420" spans="16:21" ht="13" customHeight="1">
       <c r="P420" s="75"/>
       <c r="S420" s="75"/>
       <c r="U420" s="75"/>
     </row>
-    <row r="421" spans="16:21">
+    <row r="421" spans="16:21" ht="13" customHeight="1">
       <c r="P421" s="75"/>
       <c r="S421" s="75"/>
       <c r="U421" s="75"/>
     </row>
-    <row r="422" spans="16:21">
+    <row r="422" spans="16:21" ht="13" customHeight="1">
       <c r="P422" s="75"/>
       <c r="S422" s="75"/>
       <c r="U422" s="75"/>
     </row>
-    <row r="423" spans="16:21">
+    <row r="423" spans="16:21" ht="13" customHeight="1">
       <c r="P423" s="75"/>
       <c r="S423" s="75"/>
       <c r="U423" s="75"/>
     </row>
-    <row r="424" spans="16:21">
+    <row r="424" spans="16:21" ht="13" customHeight="1">
       <c r="P424" s="75"/>
       <c r="S424" s="75"/>
       <c r="U424" s="75"/>
     </row>
-    <row r="425" spans="16:21">
+    <row r="425" spans="16:21" ht="13" customHeight="1">
       <c r="P425" s="75"/>
       <c r="S425" s="75"/>
       <c r="U425" s="75"/>
     </row>
-    <row r="426" spans="16:21">
+    <row r="426" spans="16:21" ht="13" customHeight="1">
       <c r="P426" s="75"/>
       <c r="S426" s="75"/>
       <c r="U426" s="75"/>
     </row>
-    <row r="427" spans="16:21">
+    <row r="427" spans="16:21" ht="13" customHeight="1">
       <c r="P427" s="75"/>
       <c r="S427" s="75"/>
       <c r="U427" s="75"/>
     </row>
-    <row r="428" spans="16:21">
+    <row r="428" spans="16:21" ht="13" customHeight="1">
       <c r="P428" s="75"/>
       <c r="S428" s="75"/>
       <c r="U428" s="75"/>
     </row>
-    <row r="429" spans="16:21">
+    <row r="429" spans="16:21" ht="13" customHeight="1">
       <c r="P429" s="75"/>
       <c r="S429" s="75"/>
       <c r="U429" s="75"/>
     </row>
-    <row r="430" spans="16:21">
+    <row r="430" spans="16:21" ht="13" customHeight="1">
       <c r="P430" s="75"/>
       <c r="S430" s="75"/>
       <c r="U430" s="75"/>
     </row>
-    <row r="431" spans="16:21">
+    <row r="431" spans="16:21" ht="13" customHeight="1">
       <c r="P431" s="75"/>
       <c r="S431" s="75"/>
       <c r="U431" s="75"/>
     </row>
-    <row r="432" spans="16:21">
+    <row r="432" spans="16:21" ht="13" customHeight="1">
       <c r="P432" s="75"/>
       <c r="S432" s="75"/>
       <c r="U432" s="75"/>
     </row>
-    <row r="433" spans="16:21">
+    <row r="433" spans="16:21" ht="13" customHeight="1">
       <c r="P433" s="75"/>
       <c r="S433" s="75"/>
       <c r="U433" s="75"/>
     </row>
-    <row r="434" spans="16:21">
+    <row r="434" spans="16:21" ht="13" customHeight="1">
       <c r="P434" s="75"/>
       <c r="S434" s="75"/>
       <c r="U434" s="75"/>
     </row>
-    <row r="435" spans="16:21">
+    <row r="435" spans="16:21" ht="13" customHeight="1">
       <c r="P435" s="75"/>
       <c r="S435" s="75"/>
       <c r="U435" s="75"/>
     </row>
-    <row r="436" spans="16:21">
+    <row r="436" spans="16:21" ht="13" customHeight="1">
       <c r="P436" s="75"/>
       <c r="S436" s="75"/>
       <c r="U436" s="75"/>
     </row>
-    <row r="437" spans="16:21">
+    <row r="437" spans="16:21" ht="13" customHeight="1">
       <c r="P437" s="75"/>
       <c r="S437" s="75"/>
       <c r="U437" s="75"/>
     </row>
-    <row r="438" spans="16:21">
+    <row r="438" spans="16:21" ht="13" customHeight="1">
       <c r="P438" s="75"/>
       <c r="S438" s="75"/>
       <c r="U438" s="75"/>
     </row>
-    <row r="439" spans="16:21">
+    <row r="439" spans="16:21" ht="13" customHeight="1">
       <c r="P439" s="75"/>
       <c r="S439" s="75"/>
       <c r="U439" s="75"/>
     </row>
-    <row r="440" spans="16:21">
+    <row r="440" spans="16:21" ht="13" customHeight="1">
       <c r="P440" s="75"/>
       <c r="S440" s="75"/>
       <c r="U440" s="75"/>
     </row>
-    <row r="441" spans="16:21">
+    <row r="441" spans="16:21" ht="13" customHeight="1">
       <c r="P441" s="75"/>
       <c r="S441" s="75"/>
       <c r="U441" s="75"/>
     </row>
-    <row r="442" spans="16:21">
+    <row r="442" spans="16:21" ht="13" customHeight="1">
       <c r="P442" s="75"/>
       <c r="S442" s="75"/>
       <c r="U442" s="75"/>
     </row>
-    <row r="443" spans="16:21">
+    <row r="443" spans="16:21" ht="13" customHeight="1">
       <c r="P443" s="75"/>
       <c r="S443" s="75"/>
       <c r="U443" s="75"/>
     </row>
-    <row r="444" spans="16:21">
+    <row r="444" spans="16:21" ht="13" customHeight="1">
       <c r="P444" s="75"/>
       <c r="S444" s="75"/>
       <c r="U444" s="75"/>
     </row>
-    <row r="445" spans="16:21">
+    <row r="445" spans="16:21" ht="13" customHeight="1">
       <c r="P445" s="75"/>
       <c r="S445" s="75"/>
       <c r="U445" s="75"/>
     </row>
-    <row r="446" spans="16:21">
+    <row r="446" spans="16:21" ht="13" customHeight="1">
       <c r="P446" s="75"/>
       <c r="S446" s="75"/>
       <c r="U446" s="75"/>
     </row>
-    <row r="447" spans="16:21">
+    <row r="447" spans="16:21" ht="13" customHeight="1">
       <c r="P447" s="75"/>
       <c r="S447" s="75"/>
       <c r="U447" s="75"/>
     </row>
-    <row r="448" spans="16:21">
+    <row r="448" spans="16:21" ht="13" customHeight="1">
       <c r="P448" s="75"/>
       <c r="S448" s="75"/>
       <c r="U448" s="75"/>
     </row>
-    <row r="449" spans="16:21">
+    <row r="449" spans="16:21" ht="13" customHeight="1">
       <c r="P449" s="75"/>
       <c r="S449" s="75"/>
       <c r="U449" s="75"/>
     </row>
-    <row r="450" spans="16:21">
+    <row r="450" spans="16:21" ht="13" customHeight="1">
       <c r="P450" s="75"/>
       <c r="S450" s="75"/>
       <c r="U450" s="75"/>
     </row>
-    <row r="451" spans="16:21">
+    <row r="451" spans="16:21" ht="13" customHeight="1">
       <c r="P451" s="75"/>
       <c r="S451" s="75"/>
       <c r="U451" s="75"/>
     </row>
-    <row r="452" spans="16:21">
+    <row r="452" spans="16:21" ht="13" customHeight="1">
       <c r="P452" s="75"/>
       <c r="S452" s="75"/>
       <c r="U452" s="75"/>
     </row>
-    <row r="453" spans="16:21">
+    <row r="453" spans="16:21" ht="13" customHeight="1">
       <c r="P453" s="75"/>
       <c r="S453" s="75"/>
       <c r="U453" s="75"/>
     </row>
-    <row r="454" spans="16:21">
+    <row r="454" spans="16:21" ht="13" customHeight="1">
       <c r="P454" s="75"/>
       <c r="S454" s="75"/>
       <c r="U454" s="75"/>
     </row>
-    <row r="455" spans="16:21">
+    <row r="455" spans="16:21" ht="13" customHeight="1">
       <c r="P455" s="75"/>
       <c r="S455" s="75"/>
       <c r="U455" s="75"/>
     </row>
-    <row r="456" spans="16:21">
+    <row r="456" spans="16:21" ht="13" customHeight="1">
       <c r="P456" s="75"/>
       <c r="S456" s="75"/>
       <c r="U456" s="75"/>
     </row>
-    <row r="457" spans="16:21">
+    <row r="457" spans="16:21" ht="13" customHeight="1">
       <c r="P457" s="75"/>
       <c r="S457" s="75"/>
       <c r="U457" s="75"/>
     </row>
-    <row r="458" spans="16:21">
+    <row r="458" spans="16:21" ht="13" customHeight="1">
       <c r="P458" s="75"/>
       <c r="S458" s="75"/>
       <c r="U458" s="75"/>
     </row>
-    <row r="459" spans="16:21">
+    <row r="459" spans="16:21" ht="13" customHeight="1">
       <c r="P459" s="75"/>
       <c r="S459" s="75"/>
       <c r="U459" s="75"/>
     </row>
-    <row r="460" spans="16:21">
+    <row r="460" spans="16:21" ht="13" customHeight="1">
       <c r="P460" s="75"/>
       <c r="S460" s="75"/>
       <c r="U460" s="75"/>
     </row>
-    <row r="461" spans="16:21">
+    <row r="461" spans="16:21" ht="13" customHeight="1">
       <c r="P461" s="75"/>
       <c r="S461" s="75"/>
       <c r="U461" s="75"/>
     </row>
-    <row r="462" spans="16:21">
+    <row r="462" spans="16:21" ht="13" customHeight="1">
       <c r="P462" s="75"/>
       <c r="S462" s="75"/>
       <c r="U462" s="75"/>
     </row>
-    <row r="463" spans="16:21">
+    <row r="463" spans="16:21" ht="13" customHeight="1">
       <c r="P463" s="75"/>
       <c r="S463" s="75"/>
       <c r="U463" s="75"/>
     </row>
-    <row r="464" spans="16:21">
+    <row r="464" spans="16:21" ht="13" customHeight="1">
       <c r="P464" s="75"/>
       <c r="S464" s="75"/>
       <c r="U464" s="75"/>
     </row>
-    <row r="465" spans="16:21">
+    <row r="465" spans="16:21" ht="13" customHeight="1">
       <c r="P465" s="75"/>
       <c r="S465" s="75"/>
       <c r="U465" s="75"/>
     </row>
-    <row r="466" spans="16:21">
+    <row r="466" spans="16:21" ht="13" customHeight="1">
       <c r="P466" s="75"/>
       <c r="S466" s="75"/>
       <c r="U466" s="75"/>
     </row>
-    <row r="467" spans="16:21">
+    <row r="467" spans="16:21" ht="13" customHeight="1">
       <c r="P467" s="75"/>
       <c r="S467" s="75"/>
       <c r="U467" s="75"/>
     </row>
-    <row r="468" spans="16:21">
+    <row r="468" spans="16:21" ht="13" customHeight="1">
       <c r="P468" s="75"/>
       <c r="S468" s="75"/>
       <c r="U468" s="75"/>
     </row>
-    <row r="469" spans="16:21">
+    <row r="469" spans="16:21" ht="13" customHeight="1">
       <c r="P469" s="75"/>
       <c r="S469" s="75"/>
       <c r="U469" s="75"/>
     </row>
-    <row r="470" spans="16:21">
+    <row r="470" spans="16:21" ht="13" customHeight="1">
       <c r="P470" s="75"/>
       <c r="S470" s="75"/>
       <c r="U470" s="75"/>
     </row>
-    <row r="471" spans="16:21">
+    <row r="471" spans="16:21" ht="13" customHeight="1">
       <c r="P471" s="75"/>
       <c r="S471" s="75"/>
       <c r="U471" s="75"/>
     </row>
-    <row r="472" spans="16:21">
+    <row r="472" spans="16:21" ht="13" customHeight="1">
       <c r="P472" s="75"/>
       <c r="S472" s="75"/>
       <c r="U472" s="75"/>
     </row>
-    <row r="473" spans="16:21">
+    <row r="473" spans="16:21" ht="13" customHeight="1">
       <c r="P473" s="75"/>
       <c r="S473" s="75"/>
       <c r="U473" s="75"/>
     </row>
-    <row r="474" spans="16:21">
+    <row r="474" spans="16:21" ht="13" customHeight="1">
       <c r="P474" s="75"/>
       <c r="S474" s="75"/>
       <c r="U474" s="75"/>
     </row>
-    <row r="475" spans="16:21">
+    <row r="475" spans="16:21" ht="13" customHeight="1">
       <c r="P475" s="75"/>
       <c r="S475" s="75"/>
       <c r="U475" s="75"/>
     </row>
-    <row r="476" spans="16:21">
+    <row r="476" spans="16:21" ht="13" customHeight="1">
       <c r="P476" s="75"/>
       <c r="S476" s="75"/>
       <c r="U476" s="75"/>
     </row>
-    <row r="477" spans="16:21">
+    <row r="477" spans="16:21" ht="13" customHeight="1">
       <c r="P477" s="75"/>
       <c r="S477" s="75"/>
       <c r="U477" s="75"/>
     </row>
-    <row r="478" spans="16:21">
+    <row r="478" spans="16:21" ht="13" customHeight="1">
       <c r="P478" s="75"/>
       <c r="S478" s="75"/>
       <c r="U478" s="75"/>
     </row>
-    <row r="479" spans="16:21">
+    <row r="479" spans="16:21" ht="13" customHeight="1">
       <c r="P479" s="75"/>
       <c r="S479" s="75"/>
       <c r="U479" s="75"/>
     </row>
-    <row r="480" spans="16:21">
+    <row r="480" spans="16:21" ht="13" customHeight="1">
       <c r="P480" s="75"/>
       <c r="S480" s="75"/>
       <c r="U480" s="75"/>
     </row>
-    <row r="481" spans="16:21">
+    <row r="481" spans="16:21" ht="13" customHeight="1">
       <c r="P481" s="75"/>
       <c r="S481" s="75"/>
       <c r="U481" s="75"/>
     </row>
-    <row r="482" spans="16:21">
+    <row r="482" spans="16:21" ht="13" customHeight="1">
       <c r="P482" s="75"/>
       <c r="S482" s="75"/>
       <c r="U482" s="75"/>
     </row>
-    <row r="483" spans="16:21">
+    <row r="483" spans="16:21" ht="13" customHeight="1">
       <c r="P483" s="75"/>
       <c r="S483" s="75"/>
       <c r="U483" s="75"/>
     </row>
-    <row r="484" spans="16:21">
+    <row r="484" spans="16:21" ht="13" customHeight="1">
       <c r="P484" s="75"/>
       <c r="S484" s="75"/>
       <c r="U484" s="75"/>
     </row>
-    <row r="485" spans="16:21">
+    <row r="485" spans="16:21" ht="13" customHeight="1">
       <c r="P485" s="75"/>
       <c r="S485" s="75"/>
       <c r="U485" s="75"/>
     </row>
-    <row r="486" spans="16:21">
+    <row r="486" spans="16:21" ht="13" customHeight="1">
       <c r="P486" s="75"/>
       <c r="S486" s="75"/>
       <c r="U486" s="75"/>
     </row>
-    <row r="487" spans="16:21">
+    <row r="487" spans="16:21" ht="13" customHeight="1">
       <c r="P487" s="75"/>
       <c r="S487" s="75"/>
       <c r="U487" s="75"/>
     </row>
-    <row r="488" spans="16:21">
+    <row r="488" spans="16:21" ht="13" customHeight="1">
       <c r="P488" s="75"/>
       <c r="S488" s="75"/>
       <c r="U488" s="75"/>
     </row>
-    <row r="489" spans="16:21">
+    <row r="489" spans="16:21" ht="13" customHeight="1">
       <c r="P489" s="75"/>
       <c r="S489" s="75"/>
       <c r="U489" s="75"/>
     </row>
-    <row r="490" spans="16:21">
+    <row r="490" spans="16:21" ht="13" customHeight="1">
       <c r="P490" s="75"/>
       <c r="S490" s="75"/>
       <c r="U490" s="75"/>
     </row>
-    <row r="491" spans="16:21">
+    <row r="491" spans="16:21" ht="13" customHeight="1">
       <c r="P491" s="75"/>
       <c r="S491" s="75"/>
       <c r="U491" s="75"/>
     </row>
-    <row r="492" spans="16:21">
+    <row r="492" spans="16:21" ht="13" customHeight="1">
       <c r="P492" s="75"/>
       <c r="S492" s="75"/>
       <c r="U492" s="75"/>
     </row>
-    <row r="493" spans="16:21">
+    <row r="493" spans="16:21" ht="13" customHeight="1">
       <c r="P493" s="75"/>
       <c r="S493" s="75"/>
       <c r="U493" s="75"/>
     </row>
-    <row r="494" spans="16:21">
+    <row r="494" spans="16:21" ht="13" customHeight="1">
       <c r="P494" s="75"/>
       <c r="S494" s="75"/>
       <c r="U494" s="75"/>
     </row>
-    <row r="495" spans="16:21">
+    <row r="495" spans="16:21" ht="13" customHeight="1">
       <c r="P495" s="75"/>
       <c r="S495" s="75"/>
       <c r="U495" s="75"/>
     </row>
-    <row r="496" spans="16:21">
+    <row r="496" spans="16:21" ht="13" customHeight="1">
       <c r="P496" s="75"/>
       <c r="S496" s="75"/>
       <c r="U496" s="75"/>
     </row>
-    <row r="497" spans="16:21">
+    <row r="497" spans="16:21" ht="13" customHeight="1">
       <c r="P497" s="75"/>
       <c r="S497" s="75"/>
       <c r="U497" s="75"/>
     </row>
-    <row r="498" spans="16:21">
+    <row r="498" spans="16:21" ht="13" customHeight="1">
       <c r="P498" s="75"/>
       <c r="S498" s="75"/>
       <c r="U498" s="75"/>
     </row>
-    <row r="499" spans="16:21">
+    <row r="499" spans="16:21" ht="13" customHeight="1">
       <c r="P499" s="75"/>
       <c r="S499" s="75"/>
       <c r="U499" s="75"/>
     </row>
-    <row r="500" spans="16:21">
+    <row r="500" spans="16:21" ht="13" customHeight="1">
       <c r="P500" s="75"/>
       <c r="S500" s="75"/>
       <c r="U500" s="75"/>
     </row>
-    <row r="501" spans="16:21">
+    <row r="501" spans="16:21" ht="13" customHeight="1">
       <c r="P501" s="75"/>
       <c r="S501" s="75"/>
       <c r="U501" s="75"/>
     </row>
-    <row r="502" spans="16:21">
+    <row r="502" spans="16:21" ht="13" customHeight="1">
       <c r="P502" s="75"/>
       <c r="S502" s="75"/>
       <c r="U502" s="75"/>
     </row>
-    <row r="503" spans="16:21">
+    <row r="503" spans="16:21" ht="13" customHeight="1">
       <c r="P503" s="75"/>
       <c r="S503" s="75"/>
       <c r="U503" s="75"/>
     </row>
-    <row r="504" spans="16:21">
+    <row r="504" spans="16:21" ht="13" customHeight="1">
       <c r="P504" s="75"/>
       <c r="S504" s="75"/>
       <c r="U504" s="75"/>
     </row>
-    <row r="505" spans="16:21">
+    <row r="505" spans="16:21" ht="13" customHeight="1">
       <c r="P505" s="75"/>
       <c r="S505" s="75"/>
       <c r="U505" s="75"/>
     </row>
-    <row r="506" spans="16:21">
+    <row r="506" spans="16:21" ht="13" customHeight="1">
       <c r="P506" s="75"/>
       <c r="S506" s="75"/>
       <c r="U506" s="75"/>
     </row>
-    <row r="507" spans="16:21">
+    <row r="507" spans="16:21" ht="13" customHeight="1">
       <c r="P507" s="75"/>
       <c r="S507" s="75"/>
       <c r="U507" s="75"/>
     </row>
-    <row r="508" spans="16:21">
+    <row r="508" spans="16:21" ht="13" customHeight="1">
       <c r="P508" s="75"/>
       <c r="S508" s="75"/>
       <c r="U508" s="75"/>
     </row>
-    <row r="509" spans="16:21">
+    <row r="509" spans="16:21" ht="13" customHeight="1">
       <c r="P509" s="75"/>
       <c r="S509" s="75"/>
       <c r="U509" s="75"/>
     </row>
-    <row r="510" spans="16:21">
+    <row r="510" spans="16:21" ht="13" customHeight="1">
       <c r="P510" s="75"/>
       <c r="S510" s="75"/>
       <c r="U510" s="75"/>
     </row>
-    <row r="511" spans="16:21">
+    <row r="511" spans="16:21" ht="13" customHeight="1">
       <c r="P511" s="75"/>
       <c r="S511" s="75"/>
       <c r="U511" s="75"/>
     </row>
-    <row r="512" spans="16:21">
+    <row r="512" spans="16:21" ht="13" customHeight="1">
       <c r="P512" s="75"/>
       <c r="S512" s="75"/>
       <c r="U512" s="75"/>
     </row>
-    <row r="513" spans="16:21">
+    <row r="513" spans="16:21" ht="13" customHeight="1">
       <c r="P513" s="75"/>
       <c r="S513" s="75"/>
       <c r="U513" s="75"/>
     </row>
-    <row r="514" spans="16:21">
+    <row r="514" spans="16:21" ht="13" customHeight="1">
       <c r="P514" s="75"/>
       <c r="S514" s="75"/>
       <c r="U514" s="75"/>
     </row>
-    <row r="515" spans="16:21">
+    <row r="515" spans="16:21" ht="13" customHeight="1">
       <c r="P515" s="75"/>
       <c r="S515" s="75"/>
       <c r="U515" s="75"/>
     </row>
-    <row r="516" spans="16:21">
+    <row r="516" spans="16:21" ht="13" customHeight="1">
       <c r="P516" s="75"/>
       <c r="S516" s="75"/>
       <c r="U516" s="75"/>
     </row>
-    <row r="517" spans="16:21">
+    <row r="517" spans="16:21" ht="13" customHeight="1">
       <c r="P517" s="75"/>
       <c r="S517" s="75"/>
       <c r="U517" s="75"/>
     </row>
-    <row r="518" spans="16:21">
+    <row r="518" spans="16:21" ht="13" customHeight="1">
       <c r="P518" s="75"/>
       <c r="S518" s="75"/>
       <c r="U518" s="75"/>
     </row>
-    <row r="519" spans="16:21">
+    <row r="519" spans="16:21" ht="13" customHeight="1">
       <c r="P519" s="75"/>
       <c r="S519" s="75"/>
       <c r="U519" s="75"/>
     </row>
-    <row r="520" spans="16:21">
+    <row r="520" spans="16:21" ht="13" customHeight="1">
       <c r="P520" s="75"/>
       <c r="S520" s="75"/>
       <c r="U520" s="75"/>
     </row>
-    <row r="521" spans="16:21">
+    <row r="521" spans="16:21" ht="13" customHeight="1">
       <c r="P521" s="75"/>
       <c r="S521" s="75"/>
       <c r="U521" s="75"/>
     </row>
-    <row r="522" spans="16:21">
+    <row r="522" spans="16:21" ht="13" customHeight="1">
       <c r="P522" s="75"/>
       <c r="S522" s="75"/>
       <c r="U522" s="75"/>
     </row>
-    <row r="523" spans="16:21">
+    <row r="523" spans="16:21" ht="13" customHeight="1">
       <c r="P523" s="75"/>
       <c r="S523" s="75"/>
       <c r="U523" s="75"/>
     </row>
-    <row r="524" spans="16:21">
+    <row r="524" spans="16:21" ht="13" customHeight="1">
       <c r="P524" s="75"/>
       <c r="S524" s="75"/>
       <c r="U524" s="75"/>
     </row>
-    <row r="525" spans="16:21">
+    <row r="525" spans="16:21" ht="13" customHeight="1">
       <c r="P525" s="75"/>
       <c r="S525" s="75"/>
       <c r="U525" s="75"/>
     </row>
-    <row r="526" spans="16:21">
+    <row r="526" spans="16:21" ht="13" customHeight="1">
       <c r="P526" s="75"/>
       <c r="S526" s="75"/>
       <c r="U526" s="75"/>
     </row>
-    <row r="527" spans="16:21">
+    <row r="527" spans="16:21" ht="13" customHeight="1">
       <c r="P527" s="75"/>
       <c r="S527" s="75"/>
       <c r="U527" s="75"/>
     </row>
-    <row r="528" spans="16:21">
+    <row r="528" spans="16:21" ht="13" customHeight="1">
       <c r="P528" s="75"/>
       <c r="S528" s="75"/>
       <c r="U528" s="75"/>
     </row>
-    <row r="529" spans="16:21">
+    <row r="529" spans="16:21" ht="13" customHeight="1">
       <c r="P529" s="75"/>
       <c r="S529" s="75"/>
       <c r="U529" s="75"/>
     </row>
-    <row r="530" spans="16:21">
+    <row r="530" spans="16:21" ht="13" customHeight="1">
       <c r="P530" s="75"/>
       <c r="S530" s="75"/>
       <c r="U530" s="75"/>
     </row>
-    <row r="531" spans="16:21">
+    <row r="531" spans="16:21" ht="13" customHeight="1">
       <c r="P531" s="75"/>
       <c r="S531" s="75"/>
       <c r="U531" s="75"/>
     </row>
-    <row r="532" spans="16:21">
+    <row r="532" spans="16:21" ht="13" customHeight="1">
       <c r="P532" s="75"/>
       <c r="S532" s="75"/>
       <c r="U532" s="75"/>
     </row>
-    <row r="533" spans="16:21">
+    <row r="533" spans="16:21" ht="13" customHeight="1">
       <c r="P533" s="75"/>
       <c r="S533" s="75"/>
       <c r="U533" s="75"/>
     </row>
-    <row r="534" spans="16:21">
+    <row r="534" spans="16:21" ht="13" customHeight="1">
       <c r="P534" s="75"/>
       <c r="S534" s="75"/>
       <c r="U534" s="75"/>
     </row>
-    <row r="535" spans="16:21">
+    <row r="535" spans="16:21" ht="13" customHeight="1">
       <c r="P535" s="75"/>
       <c r="S535" s="75"/>
       <c r="U535" s="75"/>
     </row>
-    <row r="536" spans="16:21">
+    <row r="536" spans="16:21" ht="13" customHeight="1">
       <c r="P536" s="75"/>
       <c r="S536" s="75"/>
       <c r="U536" s="75"/>
     </row>
-    <row r="537" spans="16:21">
+    <row r="537" spans="16:21" ht="13" customHeight="1">
       <c r="P537" s="75"/>
       <c r="S537" s="75"/>
       <c r="U537" s="75"/>
     </row>
-    <row r="538" spans="16:21">
+    <row r="538" spans="16:21" ht="13" customHeight="1">
       <c r="P538" s="75"/>
       <c r="S538" s="75"/>
       <c r="U538" s="75"/>
     </row>
-    <row r="539" spans="16:21">
+    <row r="539" spans="16:21" ht="13" customHeight="1">
       <c r="P539" s="75"/>
       <c r="S539" s="75"/>
       <c r="U539" s="75"/>
     </row>
-    <row r="540" spans="16:21">
+    <row r="540" spans="16:21" ht="13" customHeight="1">
       <c r="P540" s="75"/>
       <c r="S540" s="75"/>
       <c r="U540" s="75"/>
     </row>
-    <row r="541" spans="16:21">
+    <row r="541" spans="16:21" ht="13" customHeight="1">
       <c r="P541" s="75"/>
       <c r="S541" s="75"/>
       <c r="U541" s="75"/>
     </row>
-    <row r="542" spans="16:21">
+    <row r="542" spans="16:21" ht="13" customHeight="1">
       <c r="P542" s="75"/>
       <c r="S542" s="75"/>
       <c r="U542" s="75"/>
     </row>
-    <row r="543" spans="16:21">
+    <row r="543" spans="16:21" ht="13" customHeight="1">
       <c r="P543" s="75"/>
       <c r="S543" s="75"/>
       <c r="U543" s="75"/>
     </row>
-    <row r="544" spans="16:21">
+    <row r="544" spans="16:21" ht="13" customHeight="1">
       <c r="P544" s="75"/>
       <c r="S544" s="75"/>
       <c r="U544" s="75"/>
     </row>
-    <row r="545" spans="16:21">
+    <row r="545" spans="16:21" ht="13" customHeight="1">
       <c r="P545" s="75"/>
       <c r="S545" s="75"/>
       <c r="U545" s="75"/>
     </row>
-    <row r="546" spans="16:21">
+    <row r="546" spans="16:21" ht="13" customHeight="1">
       <c r="P546" s="75"/>
       <c r="S546" s="75"/>
       <c r="U546" s="75"/>
     </row>
-    <row r="547" spans="16:21">
+    <row r="547" spans="16:21" ht="13" customHeight="1">
       <c r="P547" s="75"/>
       <c r="S547" s="75"/>
       <c r="U547" s="75"/>
     </row>
-    <row r="548" spans="16:21">
+    <row r="548" spans="16:21" ht="13" customHeight="1">
       <c r="P548" s="75"/>
       <c r="S548" s="75"/>
       <c r="U548" s="75"/>
     </row>
-    <row r="549" spans="16:21">
+    <row r="549" spans="16:21" ht="13" customHeight="1">
       <c r="P549" s="75"/>
       <c r="S549" s="75"/>
       <c r="U549" s="75"/>
     </row>
-    <row r="550" spans="16:21">
+    <row r="550" spans="16:21" ht="13" customHeight="1">
       <c r="P550" s="75"/>
       <c r="S550" s="75"/>
       <c r="U550" s="75"/>
     </row>
-    <row r="551" spans="16:21">
+    <row r="551" spans="16:21" ht="13" customHeight="1">
       <c r="P551" s="75"/>
       <c r="S551" s="75"/>
       <c r="U551" s="75"/>
     </row>
-    <row r="552" spans="16:21">
+    <row r="552" spans="16:21" ht="13" customHeight="1">
       <c r="P552" s="75"/>
       <c r="S552" s="75"/>
       <c r="U552" s="75"/>
     </row>
-    <row r="553" spans="16:21">
+    <row r="553" spans="16:21" ht="13" customHeight="1">
       <c r="P553" s="75"/>
       <c r="S553" s="75"/>
       <c r="U553" s="75"/>
     </row>
-    <row r="554" spans="16:21">
+    <row r="554" spans="16:21" ht="13" customHeight="1">
       <c r="P554" s="75"/>
       <c r="S554" s="75"/>
       <c r="U554" s="75"/>
     </row>
-    <row r="555" spans="16:21">
+    <row r="555" spans="16:21" ht="13" customHeight="1">
       <c r="P555" s="75"/>
       <c r="S555" s="75"/>
       <c r="U555" s="75"/>
     </row>
-    <row r="556" spans="16:21">
+    <row r="556" spans="16:21" ht="13" customHeight="1">
       <c r="P556" s="75"/>
       <c r="S556" s="75"/>
       <c r="U556" s="75"/>
     </row>
-    <row r="557" spans="16:21">
+    <row r="557" spans="16:21" ht="13" customHeight="1">
       <c r="P557" s="75"/>
       <c r="S557" s="75"/>
       <c r="U557" s="75"/>
     </row>
-    <row r="558" spans="16:21">
+    <row r="558" spans="16:21" ht="13" customHeight="1">
       <c r="P558" s="75"/>
       <c r="S558" s="75"/>
       <c r="U558" s="75"/>
     </row>
-    <row r="559" spans="16:21">
+    <row r="559" spans="16:21" ht="13" customHeight="1">
       <c r="P559" s="75"/>
       <c r="S559" s="75"/>
       <c r="U559" s="75"/>
     </row>
-    <row r="560" spans="16:21">
+    <row r="560" spans="16:21" ht="13" customHeight="1">
       <c r="P560" s="75"/>
       <c r="S560" s="75"/>
       <c r="U560" s="75"/>
     </row>
-    <row r="561" spans="16:21">
+    <row r="561" spans="16:21" ht="13" customHeight="1">
       <c r="P561" s="75"/>
       <c r="S561" s="75"/>
       <c r="U561" s="75"/>
     </row>
-    <row r="562" spans="16:21">
+    <row r="562" spans="16:21" ht="13" customHeight="1">
       <c r="P562" s="75"/>
       <c r="S562" s="75"/>
       <c r="U562" s="75"/>
     </row>
-    <row r="563" spans="16:21">
+    <row r="563" spans="16:21" ht="13" customHeight="1">
       <c r="P563" s="75"/>
       <c r="S563" s="75"/>
       <c r="U563" s="75"/>
     </row>
-    <row r="564" spans="16:21">
+    <row r="564" spans="16:21" ht="13" customHeight="1">
       <c r="P564" s="75"/>
       <c r="S564" s="75"/>
       <c r="U564" s="75"/>
     </row>
-    <row r="565" spans="16:21">
+    <row r="565" spans="16:21" ht="13" customHeight="1">
       <c r="P565" s="75"/>
       <c r="S565" s="75"/>
       <c r="U565" s="75"/>
     </row>
-    <row r="566" spans="16:21">
+    <row r="566" spans="16:21" ht="13" customHeight="1">
       <c r="P566" s="75"/>
       <c r="S566" s="75"/>
       <c r="U566" s="75"/>
     </row>
-    <row r="567" spans="16:21">
+    <row r="567" spans="16:21" ht="13" customHeight="1">
       <c r="P567" s="75"/>
       <c r="S567" s="75"/>
       <c r="U567" s="75"/>
     </row>
-    <row r="568" spans="16:21">
+    <row r="568" spans="16:21" ht="13" customHeight="1">
       <c r="P568" s="75"/>
       <c r="S568" s="75"/>
       <c r="U568" s="75"/>
     </row>
-    <row r="569" spans="16:21">
+    <row r="569" spans="16:21" ht="13" customHeight="1">
       <c r="P569" s="75"/>
       <c r="S569" s="75"/>
       <c r="U569" s="75"/>
     </row>
-    <row r="570" spans="16:21">
+    <row r="570" spans="16:21" ht="13" customHeight="1">
       <c r="P570" s="75"/>
       <c r="S570" s="75"/>
       <c r="U570" s="75"/>
     </row>
-    <row r="571" spans="16:21">
+    <row r="571" spans="16:21" ht="13" customHeight="1">
       <c r="P571" s="75"/>
       <c r="S571" s="75"/>
       <c r="U571" s="75"/>
     </row>
-    <row r="572" spans="16:21">
+    <row r="572" spans="16:21" ht="13" customHeight="1">
       <c r="P572" s="75"/>
       <c r="S572" s="75"/>
       <c r="U572" s="75"/>
     </row>
-    <row r="573" spans="16:21">
+    <row r="573" spans="16:21" ht="13" customHeight="1">
       <c r="P573" s="75"/>
       <c r="S573" s="75"/>
       <c r="U573" s="75"/>
     </row>
-    <row r="574" spans="16:21">
+    <row r="574" spans="16:21" ht="13" customHeight="1">
       <c r="P574" s="75"/>
       <c r="S574" s="75"/>
       <c r="U574" s="75"/>

--- a/test/files/FQ_BFR5.xlsx
+++ b/test/files/FQ_BFR5.xlsx
@@ -13021,7 +13021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -13030,17 +13030,17 @@
     <col min="2" max="2" width="14.5" style="75" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" style="75" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="45" style="75" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="45.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="75" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="14" style="75" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="158" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" style="75" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="75" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="75" customWidth="1"/>
-    <col min="14" max="14" width="32.5" style="75" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" style="75" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="75" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="75" customWidth="1"/>
     <col min="16" max="16" width="3.5" style="74" customWidth="1"/>
     <col min="17" max="17" width="12" style="75" customWidth="1"/>
     <col min="18" max="18" width="24" style="75" customWidth="1"/>
